--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11141500</v>
+      </c>
+      <c r="E8" s="3">
         <v>11359000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11055700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11099700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10454100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10605500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10504000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10695000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10067800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9884300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9640900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9356800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8762200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9005600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7782300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7711200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7621000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7571400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7399800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7308100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14685400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14882700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7219400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13822400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6754200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6447200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6258000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6275600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3359200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3647800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3434700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3528300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3054300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3297400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2848400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2886700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2909600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2504200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2730000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1008,8 +1028,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1017,26 +1037,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>501600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9652600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9591700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9484200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9381700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9067500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8976500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9034300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9060100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8785100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8386100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8340500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8483100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7635900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7673600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1488900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1767300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1571500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1718000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1386600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1629000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1469700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1634900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1282700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1498200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>873700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1126300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E20" s="3">
         <v>38800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1960200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2205600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1808400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1931000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1601500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1826700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1696900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1856800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1469300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1731500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1529000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1072500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1310300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1521600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1509600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1560800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1704300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1376300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1610500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1456600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1612600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1244800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1494100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1292000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>874400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1118500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1331100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E24" s="3">
         <v>425500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>415200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>435700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>235500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>319200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>408200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>513500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>188500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>305600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>308800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>169600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>231300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>271400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1252100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1375200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1145500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1268600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1140700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1291300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1048400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1099100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1056300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1188500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>983200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>704800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>887200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1059700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1357000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1130400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1249500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1124400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1274700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1029500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1083900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1123700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>932500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>669500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>838800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1004500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,17 +1715,17 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-40900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-38800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1357000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1130400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1249500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1124400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1274700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1029500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1043000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>863700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1123700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>932500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>669500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>838800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1004500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1357000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1130400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1249500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1124400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1274700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1029500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1043000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>863700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1123700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>932500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>669500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>838800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1004500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,60 +2139,64 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5436500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5810500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6126900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4769200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4464900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4363800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5061400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3928800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3595100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3681700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4126900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3382200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3238900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4077100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="E42" s="3">
         <v>3300</v>
@@ -2115,87 +2205,93 @@
         <v>3300</v>
       </c>
       <c r="G42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="3">
         <v>3100</v>
       </c>
       <c r="I42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J42" s="3">
         <v>3200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2500</v>
       </c>
       <c r="P42" s="3">
         <v>2500</v>
       </c>
       <c r="Q42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8517900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8577400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8095100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8134100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8151400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8023100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7496400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7446700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7511300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7458000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6885300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6741700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6563900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6469000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,243 +2337,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1447200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1214900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1225400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1235000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1213900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1150400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1024600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>958100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1175200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1163500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1082200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1079200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>958700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>819800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15405300</v>
+      </c>
+      <c r="E46" s="3">
         <v>15606100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15450600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14141700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13833300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13540400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13585600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12336900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12284900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12303800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12097300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11205700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10764000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11368400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>340800</v>
+      </c>
+      <c r="E47" s="3">
         <v>336800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>311300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>255000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>249800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>258300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>238600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>251000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>254300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>266500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>252500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>250400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>243300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>290800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4607100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4540900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1391200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1341500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1282800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1243300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1264000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1228900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1196200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1159000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1140600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1041000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>968400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>928900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7606800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7129300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7046300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6922700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6514700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6219600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6070100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5963500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6015000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5770700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5712700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5253700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4797100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4560100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5543500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5557500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5590500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5495500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5509600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5444800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3290800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3470400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3382500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3474100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3486700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3384700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3306000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3295500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33503400</v>
+      </c>
+      <c r="E54" s="3">
         <v>33170700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29789900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28156400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27390200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26706400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24449100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23250800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23133000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22974200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22689900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21135600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20078800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20443700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,87 +2879,91 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1526100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1581100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1646600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1563000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1472100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1355500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1348800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1389000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1367500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1316900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1525100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1291100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1212800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1163300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2900</v>
       </c>
       <c r="N58" s="3">
         <v>2900</v>
@@ -2838,201 +2972,216 @@
         <v>2900</v>
       </c>
       <c r="P58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Q58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9644700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9614600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9408800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8984900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8742600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8816100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8797600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8161800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7997500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8543100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8296300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7860200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7137000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8004000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11177600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11199400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11061900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10552000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10219000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10176300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10151800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9553600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9367900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9863000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9824300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9154300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8352800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9170100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E61" s="3">
         <v>15900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>22200</v>
       </c>
       <c r="M61" s="3">
         <v>22200</v>
       </c>
       <c r="N61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="O61" s="3">
         <v>24700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6391900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6354200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3884000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3441600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3422900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3454600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3553100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3518500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3195500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3133200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3079900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3086300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3214900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18028800</v>
+      </c>
+      <c r="E66" s="3">
         <v>18003600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15380900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14419000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14053200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14027600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14084300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13453500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13450300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13872000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13740400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12968200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12114500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13026600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11867500</v>
+      </c>
+      <c r="E72" s="3">
         <v>11236300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10421500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11709300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11422000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10384100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7952400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8296800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8149100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7339200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7081900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8844800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8953200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8113500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15474600</v>
+      </c>
+      <c r="E76" s="3">
         <v>15167100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14409000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13737300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13337000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12678900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10364800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9797300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9682700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9102100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8949500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8167400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7964200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7417100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1357000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1130400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1249500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1124400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1274700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1029500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1043000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>863700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1123700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>932500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>669500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>838800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1004500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>442100</v>
+      </c>
+      <c r="E83" s="3">
         <v>399500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>240200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>221300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>219600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>211700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>235100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>238400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>220700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>232600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>232100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>194500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>187800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>187400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1530600</v>
+      </c>
+      <c r="E89" s="3">
         <v>786900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2116300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2123500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1359700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1027500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2109300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1987500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>924100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1005800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1941900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1792600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>154700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1083900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-241300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-140300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-179400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-173600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-132900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-191100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-104400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-84600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-597300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-165900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-375900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-655200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-451700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-272900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-375000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-270000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-345700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-259000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-652400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-547700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-344200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-689600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-510600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-507700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-930300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-931500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-853800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-817200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-782500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-785100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1289300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-948200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-351000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-831900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-531600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-703200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-592600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-681300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E101" s="3">
         <v>10900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-31700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-42000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-70200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-88600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>38200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>47700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-374100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-316300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1357700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>304300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>101100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-697600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1132500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>333800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-445100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>744700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>143300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-838200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-828600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10991300</v>
+      </c>
+      <c r="E8" s="3">
         <v>11141500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11359000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11055700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11099700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10454100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10605500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10504000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10695000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10067800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9884300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9640900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9356800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8762200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9005600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7462600</v>
+      </c>
+      <c r="E9" s="3">
         <v>7782300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7711200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7621000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7571400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7399800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7308100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14685400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14882700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7219400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13822400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6754200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6447200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6258000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6275600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3528700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3359200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3647800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3434700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3528300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3054300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3297400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2848400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2886700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2909600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2504200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2730000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,11 +1039,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1031,8 +1051,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1040,26 +1060,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>501600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9278600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9652600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9591700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9484200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9381700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9067500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8976500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9034300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9060100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8785100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8386100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8340500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8483100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7635900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7673600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1712700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1488900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1767300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1571500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1718000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1386600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1629000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1469700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1634900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1282700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1498200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>873700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1126300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1332000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>29200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>38800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2130400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1960200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2205600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1808400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1931000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1601500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1826700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1696900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1856800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1469300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1731500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1529000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1072500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1310300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1521600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1680800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1509600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1560800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1704300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1376300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1610500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1456600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1612600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1244800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1494100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1292000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>874400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1118500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1331100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>428100</v>
+      </c>
+      <c r="E24" s="3">
         <v>257500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>425500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>415200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>435700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>235500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>319200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>408200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>513500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>188500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>305600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>308800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>169600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>231300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>271400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1252600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1252100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1375200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1145500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1268600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1140700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1291300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1048400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1099100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1056300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1188500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>983200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>704800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>887200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1059700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1234700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1357000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1130400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1249500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1124400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1274700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1029500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1083900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1123700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>932500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>669500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>838800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1004500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,17 +1779,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-40900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-38800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1234700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1357000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1130400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1249500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1124400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1274700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1029500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1043000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>863700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1123700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>932500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>669500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>838800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1004500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1234700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1357000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1130400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1249500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1124400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1274700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1029500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1043000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>863700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1123700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>932500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>669500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>838800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1004500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,66 +2226,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6442300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5436500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5810500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6126900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4769200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4464900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4363800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5061400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3928800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3595100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3681700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4126900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3382200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3238900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4077100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E42" s="3">
         <v>3600</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3300</v>
       </c>
       <c r="F42" s="3">
         <v>3300</v>
@@ -2208,90 +2298,96 @@
         <v>3300</v>
       </c>
       <c r="H42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I42" s="3">
         <v>3100</v>
       </c>
       <c r="J42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2500</v>
       </c>
       <c r="Q42" s="3">
         <v>2500</v>
       </c>
       <c r="R42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8345600</v>
+      </c>
+      <c r="E43" s="3">
         <v>8517900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8577400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8095100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8134100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8151400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8023100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7496400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7446700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7511300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7458000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6885300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6741700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6563900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6469000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1354700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1447200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1214900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1225400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1235000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1213900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1150400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1024600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>958100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1175200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1163500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1082200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1079200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>958700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>819800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16146200</v>
+      </c>
+      <c r="E46" s="3">
         <v>15405300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15606100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15450600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14141700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13833300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13540400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13585600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12336900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12284900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12303800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12097300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11205700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10764000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11368400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>323700</v>
+      </c>
+      <c r="E47" s="3">
         <v>340800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>336800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>311300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>255000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>249800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>258300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>238600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>251000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>254300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>266500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>252500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>243300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>290800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4607100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4540900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1391200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1341500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1282800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1243300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1264000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1228900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1196200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1159000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1140600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1041000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>968400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>928900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8366600</v>
+      </c>
+      <c r="E49" s="3">
         <v>7606800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7129300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7046300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6922700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6514700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6219600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6070100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5963500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6015000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5770700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5712700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5253700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4797100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4560100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5552800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5543500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5557500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5590500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5495500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5509600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5444800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3290800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3470400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3382500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3474100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3486700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3384700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3306000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3295500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35057300</v>
+      </c>
+      <c r="E54" s="3">
         <v>33503400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33170700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29789900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28156400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27390200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26706400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24449100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23250800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23133000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22974200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22689900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21135600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20078800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20443700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,93 +3010,97 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1526100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1581100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1646600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1563000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1472100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1355500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1348800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1389000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1367500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1316900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1525100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1291100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1212800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1163300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2900</v>
       </c>
       <c r="O58" s="3">
         <v>2900</v>
@@ -2975,213 +3109,228 @@
         <v>2900</v>
       </c>
       <c r="Q58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="R58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10413600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9644700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9614600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9408800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8984900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8742600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8816100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8797600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8161800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7997500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8543100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8296300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7860200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7137000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8004000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11828300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11177600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11199400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11061900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10552000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10219000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10176300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10151800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9553600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9367900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9863000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9824300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9154300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8352800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9170100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E61" s="3">
         <v>13200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>22200</v>
       </c>
       <c r="N61" s="3">
         <v>22200</v>
       </c>
       <c r="O61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P61" s="3">
         <v>24700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6685100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6391900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6354200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3884000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3441600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3422900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3454600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3553100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3518500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3195500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3133200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3079900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3086300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3214900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19042700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18028800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18003600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15380900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14419000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14053200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14027600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14084300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13453500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13450300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13872000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13740400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12968200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12114500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13026600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12565900</v>
+      </c>
+      <c r="E72" s="3">
         <v>11867500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11236300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10421500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11709300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11422000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10384100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7952400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8296800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8149100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7339200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7081900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8844800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8953200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8113500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16014600</v>
+      </c>
+      <c r="E76" s="3">
         <v>15474600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15167100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14409000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13737300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13337000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12678900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10364800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9797300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9682700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9102100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8949500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8167400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7964200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7417100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1234700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1357000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1130400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1249500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1124400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1274700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1029500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1043000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>863700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1123700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>932500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>669500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>838800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1004500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>444700</v>
+      </c>
+      <c r="E83" s="3">
         <v>442100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>399500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>240200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>221300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>219600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>211700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>235100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>238400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>220700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>232600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>232100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>194500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>187800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2741500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1530600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>786900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2116300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2123500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1359700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1027500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2109300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1987500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>924100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1005800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1941900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1792600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>154700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1083900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-165400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-95100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-241300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-140300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-139800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-179400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-173600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-132900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-191100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-135800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-84600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-885000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-597300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-165900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-375900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-655200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-451700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-272900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-375000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-270000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-345700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-259000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-652400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-547700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-344200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-689600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-509600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-510600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-507700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-930300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-931500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-853800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-817200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-782500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-785100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-798100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-948200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-351000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-831900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-531600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-703200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-592600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-681300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-31700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-42000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-70200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-88600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>38200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>47700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-60000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-374100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-316300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1357700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>304300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>101100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-697600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1132500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>333800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-445100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>744700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>143300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-838200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-828600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10835300</v>
+      </c>
+      <c r="E8" s="3">
         <v>10991300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11141500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11359000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11055700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11099700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10454100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10605500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10504000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10695000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10067800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9884300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9640900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9356800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8762200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9005600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7394700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7462600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7782300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7711200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7621000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7571400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7399800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7308100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14685400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14882700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7219400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13822400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6754200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6447200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6258000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6275600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3440600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3528700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3359200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3647800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3434700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3528300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3054300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3297400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2848400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2886700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2909600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2504200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2730000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,11 +1062,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1063,26 +1083,29 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>501600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12300</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9290600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9278600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9652600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9591700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9484200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9381700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9067500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8976500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9034300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9060100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8785100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8386100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8340500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8483100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7635900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7673600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1544700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1712700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1488900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1767300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1571500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1718000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1386600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1629000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1469700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1634900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1282700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1498200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>873700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1126300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1332000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>38800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2284300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2130400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1960200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2205600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1808400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1931000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1601500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1826700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1696900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1856800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1469300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1731500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1529000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1072500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1310300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1521600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1783400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1680800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1509600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1560800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1704300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1376300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1610500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1456600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1612600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1244800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1494100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1292000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>874400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1118500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1331100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E24" s="3">
         <v>428100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>257500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>425500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>415200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>435700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>235500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>319200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>408200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>513500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>188500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>305600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>308800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>169600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>231300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>271400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1305400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1252600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1252100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1375200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1145500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1268600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1140700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1291300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1048400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1099100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1056300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1188500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>983200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>704800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>887200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1059700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1228200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1234700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1357000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1130400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1249500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1124400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1274700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1029500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1083900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1123700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>932500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>669500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>838800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1004500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,17 +1843,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-40900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-252700</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-38800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1228200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1234700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1357000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1130400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1249500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1124400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1274700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1029500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1043000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>863700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1123700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>932500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>669500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>838800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1004500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1228200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1234700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1357000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1130400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1249500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1124400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1274700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1029500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1043000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>863700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1123700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>932500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>669500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>838800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1004500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,72 +2313,76 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8415300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6442300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5436500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5810500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6126900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4769200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4464900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4363800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5061400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3928800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3595100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3681700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4126900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3382200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3238900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4077100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E42" s="3">
         <v>3700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3300</v>
       </c>
       <c r="G42" s="3">
         <v>3300</v>
@@ -2301,93 +2391,99 @@
         <v>3300</v>
       </c>
       <c r="I42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J42" s="3">
         <v>3100</v>
       </c>
       <c r="K42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L42" s="3">
         <v>3200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>2500</v>
       </c>
       <c r="R42" s="3">
         <v>2500</v>
       </c>
       <c r="S42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7846900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8345600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8517900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8577400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8095100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8134100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8151400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8023100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7496400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7446700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7511300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7458000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6885300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6741700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6563900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6469000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1393200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1354700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1447200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1214900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1225400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1235000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1213900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1150400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1024600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>958100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1175200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1163500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1082200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1079200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>958700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>819800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17749800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16146200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15405300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15606100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15450600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14141700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13833300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13540400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13585600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12336900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12284900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12303800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12097300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11205700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10764000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11368400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367800</v>
+      </c>
+      <c r="E47" s="3">
         <v>323700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>340800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>336800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>311300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>255000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>249800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>258300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>238600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>251000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>254300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>266500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>252500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>243300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>290800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4728900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4668000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4607100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4540900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1391200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1341500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1282800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1243300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1264000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1228900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1196200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1159000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1140600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>968400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>928900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8739000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8366600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7606800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7129300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7046300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6922700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6514700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6219600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6070100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5963500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6015000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5770700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5712700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5253700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4797100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4560100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5493100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5552800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5543500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5557500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5590500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5495500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5509600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5444800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3290800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3470400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3382500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3474100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3486700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3384700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3306000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3295500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37078600</v>
+      </c>
+      <c r="E54" s="3">
         <v>35057300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33503400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33170700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29789900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28156400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27390200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26706400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24449100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23250800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23133000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22974200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22689900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21135600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20078800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20443700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,99 +3141,103 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1349900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1406000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1526100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1581100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1646600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1563000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1472100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1355500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1348800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1389000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1367500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1316900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1525100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1291100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1212800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1163300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2900</v>
       </c>
       <c r="P58" s="3">
         <v>2900</v>
@@ -3112,225 +3246,240 @@
         <v>2900</v>
       </c>
       <c r="R58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="S58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11304900</v>
+      </c>
+      <c r="E59" s="3">
         <v>10413600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9644700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9614600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9408800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8984900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8742600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8816100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8797600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8161800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7997500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8543100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8296300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7860200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7137000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8004000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12662600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11828300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11177600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11199400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11061900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10552000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10219000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10176300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10151800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9553600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9367900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9863000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9824300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9154300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8352800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9170100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E61" s="3">
         <v>60300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>22200</v>
       </c>
       <c r="O61" s="3">
         <v>22200</v>
       </c>
       <c r="P61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>24700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6862800</v>
+      </c>
+      <c r="E62" s="3">
         <v>6685100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6391900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6354200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3884000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3441600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3422900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3454600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3553100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3518500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3195500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3133200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3079900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3086300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3214900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20078100</v>
+      </c>
+      <c r="E66" s="3">
         <v>19042700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18028800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18003600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15380900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14419000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14053200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14027600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14084300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13453500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13450300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13872000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13740400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12968200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12114500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13026600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12375500</v>
+      </c>
+      <c r="E72" s="3">
         <v>12565900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11867500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11236300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10421500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11709300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11422000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10384100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7952400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8296800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8149100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7339200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7081900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8844800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8953200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8113500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000500</v>
+      </c>
+      <c r="E76" s="3">
         <v>16014600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15474600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15167100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14409000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13737300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13337000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12678900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10364800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9797300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9682700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9102100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8949500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8167400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7964200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7417100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1228200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1234700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1357000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1130400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1249500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1124400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1274700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1029500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1043000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>863700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1123700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>932500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>669500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>838800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1004500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>486900</v>
+      </c>
+      <c r="E83" s="3">
         <v>444700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>442100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>399500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>240200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>221300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>219600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>211700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>235100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>238400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>220700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>232600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>232100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>194500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>187400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3156100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2741500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1530600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>786900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2116300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2123500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1359700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1027500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2109300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1987500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>924100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1005800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1941900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1792600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>154700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1083900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-150000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-165400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-95100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-241300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-140300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-139800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-179400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-173600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-132900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-133400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-191100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-135800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-104400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-84600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-246300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-885000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-597300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-165900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-375900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-655200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-451700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-272900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-375000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-270000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-345700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-259000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-652400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-547700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-344200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-689600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-507300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-509600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-510600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-507700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-930300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-931500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-853800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-817200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-782500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-785100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1013500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-798100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-948200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-351000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-831900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-531600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-703200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-592600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-681300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-52600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-31700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-42000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-70200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-88600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>38200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>47700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-60000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1973100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1005800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-374100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-316300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1357700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>304300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>101100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-697600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1132500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>333800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-445100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>744700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>143300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-838200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-828600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12088100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11762200</v>
+      </c>
+      <c r="F8" s="3">
         <v>10835300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10991300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11141500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11359000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11055700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11099700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10454100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10605500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10504000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10695000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10067800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9884300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9640900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>9356800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8762200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9005600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8492900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7863900</v>
+      </c>
+      <c r="F9" s="3">
         <v>7394700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7462600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7782300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7711200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7621000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7571400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7399800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7308100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>14685400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14882700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7219400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>13822400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6754200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6447200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6258000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6275600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3595200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3898300</v>
+      </c>
+      <c r="F10" s="3">
         <v>3440600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3528700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3359200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3647800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3434700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3528300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3054300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3297400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2848400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2886700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2909600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2504200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2730000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1081,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>501600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>12300</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10434600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9871500</v>
+      </c>
+      <c r="F17" s="3">
         <v>9290600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9278600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9652600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9591700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9484200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9381700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9067500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8976500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9034300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9060100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8785100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8386100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8340500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8483100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7635900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7673600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1653500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1890700</v>
+      </c>
+      <c r="F18" s="3">
         <v>1544700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1712700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1488900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1767300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1571500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1718000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1386600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1629000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1469700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1634900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1282700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1498200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1300400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>873700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1126300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1332000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F20" s="3">
         <v>252700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>29200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>38800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-16500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-34100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2229100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2463900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2284300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2130400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1960200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2205600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1808400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1931000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1601500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1826700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1696900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1856800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1469300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1731500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1529000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1072500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1310300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1521600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F22" s="3">
         <v>14100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>8600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3000</v>
       </c>
       <c r="T22" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V22" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1762400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1986900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1783400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1680800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1509600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1800600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1560800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1704300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1376300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1610500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1456600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1612600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1244800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1494100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1292000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>874400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1118500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1331100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>464800</v>
+      </c>
+      <c r="F24" s="3">
         <v>477900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>428100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>257500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>425500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>415200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>435700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>235500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>319200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>408200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>513500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>188500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>305600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>308800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>169600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>231300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>271400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1461500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1522100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1305400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1252600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1252100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1375200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1145500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1268600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1140700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1291300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1048400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1099100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1056300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1188500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>983200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>704800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>887200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1059700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1440900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1500300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1287900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1228200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1234700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1357000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1130400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1249500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1124400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1274700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1029500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1083900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1123700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>932500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>669500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>838800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1004500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,20 +1967,20 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-40900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-252700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-29200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-38800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>16500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>34100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1440900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1500300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1287900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1228200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1234700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1357000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1130400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1249500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1124400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1274700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1029500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1043000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>863700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1123700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>932500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>669500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>838800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1004500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1440900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1500300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1287900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1228200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1234700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1357000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1130400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1249500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1124400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1274700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1029500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1043000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>863700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1123700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>932500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>669500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>838800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1004500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2485,196 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9166600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8594000</v>
+      </c>
+      <c r="F41" s="3">
         <v>8415300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6442300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5436500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5810500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6126900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4769200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4464900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4363800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5061400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3928800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3595100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3681700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4126900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3382200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3238900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4077100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F42" s="3">
         <v>94300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3300</v>
       </c>
       <c r="I42" s="3">
         <v>3300</v>
       </c>
       <c r="J42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L42" s="3">
         <v>3100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8725400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8547700</v>
+      </c>
+      <c r="F43" s="3">
         <v>7846900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8345600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8517900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8577400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8095100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8134100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8151400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8023100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7496400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7446700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7511300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7458000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6885300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6741700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>6563900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6469000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2729,324 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1665200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1401200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1393200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1354700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1447200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1214900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1225400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1235000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1213900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1150400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1024600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>958100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1175200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1163500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1082200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1079200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>958700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>819800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19560700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18626100</v>
+      </c>
+      <c r="F46" s="3">
         <v>17749800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16146200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15405300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15606100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>15450600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14141700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13833300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13540400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13585600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>12336900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>12284900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12303800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>12097300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>11205700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>10764000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>11368400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>350600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>343400</v>
+      </c>
+      <c r="F47" s="3">
         <v>367800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>323700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>340800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>336800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>311300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>255000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>249800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>258300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>238600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>251000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>254300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>266500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>252500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>250400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>243300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>290800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4646500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4606900</v>
+      </c>
+      <c r="F48" s="3">
         <v>4728900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4668000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4607100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4540900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1391200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1341500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1282800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1243300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1264000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1228900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1196200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1159000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1140600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1041000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>968400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>928900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9960700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9208400</v>
+      </c>
+      <c r="F49" s="3">
         <v>8739000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8366600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7606800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7129300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7046300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6922700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6514700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6219600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6070100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5963500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6015000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5770700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5712700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5253700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4797100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4560100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5466800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5483500</v>
+      </c>
+      <c r="F52" s="3">
         <v>5493100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5552800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5543500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5557500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5590500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5495500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5509600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5444800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3290800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3470400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3382500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3474100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3486700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3384700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3306000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3295500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39985400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38268300</v>
+      </c>
+      <c r="F54" s="3">
         <v>37078600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35057300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>33503400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>33170700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>29789900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28156400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>27390200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26706400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>24449100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23250800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23133000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>22974200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22689900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21135600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20078800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>20443700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1740400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1513400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1349900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1406000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1526100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1581100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1646600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1563000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1472100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1355500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1348800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1389000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1367500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1316900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1525100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1291100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1212800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1163300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3000</v>
       </c>
       <c r="P58" s="3">
         <v>2900</v>
       </c>
       <c r="Q58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="R58" s="3">
         <v>2900</v>
       </c>
       <c r="S58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12341200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11296700</v>
+      </c>
+      <c r="F59" s="3">
         <v>11304900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10413600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9644700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9614600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9408800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8984900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8742600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8816100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8797600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8161800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7997500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8543100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8296300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7860200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7137000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8004000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14090700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12819100</v>
+      </c>
+      <c r="F60" s="3">
         <v>12662600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11828300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11177600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11199400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11061900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10552000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10219000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10176300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10151800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9553600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9367900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9863000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9824300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9154300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8352800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9170100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F61" s="3">
         <v>54100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>60300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>13200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>16200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>19800</v>
       </c>
       <c r="K61" s="3">
         <v>19900</v>
       </c>
       <c r="L61" s="3">
+        <v>19800</v>
+      </c>
+      <c r="M61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N61" s="3">
         <v>19700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>25900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>22200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>22200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>24700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>24500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>24600</v>
       </c>
       <c r="T61" s="3">
         <v>24500</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>24600</v>
+      </c>
+      <c r="V61" s="3">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6993000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6963100</v>
+      </c>
+      <c r="F62" s="3">
         <v>6862800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6685100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6391900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6354200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3884000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3441600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3422900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3454600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3553100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3518500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3300700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3195500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3133200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3079900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3086300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3214900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21677400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20361800</v>
+      </c>
+      <c r="F66" s="3">
         <v>20078100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19042700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18028800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18003600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15380900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14419000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14053200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14027600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14084300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13453500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13450300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13872000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13740400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12968200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12114500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13026600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14035800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13276700</v>
+      </c>
+      <c r="F72" s="3">
         <v>12375500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>12565900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>11867500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>11236300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>10421500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>11709300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11422000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10384100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7952400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8296800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8149100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7339200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7081900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8844800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8953200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8113500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18308000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17906500</v>
+      </c>
+      <c r="F76" s="3">
         <v>17000500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16014600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15474600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15167100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14409000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13737300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13337000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12678900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10364800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9797300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9682700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9102100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8949500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8167400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7964200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7417100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1440900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1500300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1287900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1228200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1234700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1357000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1130400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1249500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1124400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1274700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1029500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1043000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>863700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1123700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>932500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>669500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>838800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1004500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>457800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>468200</v>
+      </c>
+      <c r="F83" s="3">
         <v>486900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>444700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>442100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>399500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>240200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>221300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>219600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>211700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>235100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>238400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>220700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>232600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>232100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>194500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>187800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>187400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2534700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1602800</v>
+      </c>
+      <c r="F89" s="3">
         <v>3156100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2741500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1530600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>786900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2116300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2123500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1359700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1027500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2109300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1987500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>924100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1005800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1941900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1792600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>154700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1083900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-188700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-150000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-165400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-95100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-241300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-140300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-139800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-77700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-179400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-173600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-132900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-133400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-191100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-135800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-104400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-84600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-439400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-446400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-246300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-885000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-597300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-165900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-375900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-655200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-451700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-272900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-375000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-270000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-345700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-259000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-652400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-547700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-344200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-689600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5548,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-560400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-557400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-507300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-509600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-510600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-507700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-930300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-931500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-853800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-817200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-782500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-785100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1546700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-999500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-798100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-948200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-351000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-831900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-531600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-703200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-592600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-681300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F101" s="3">
         <v>76800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-52600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-18200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>10900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-31700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-42000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-70200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-88600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>38200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>47700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-60000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>572600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>178700</v>
+      </c>
+      <c r="F102" s="3">
         <v>1973100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1005800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-374100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-316300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1357700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>304300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>101100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-697600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1132500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>333800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-86600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-445100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>744700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>143300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-838200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-828600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13263800</v>
+      </c>
+      <c r="E8" s="3">
         <v>12088100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11762200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10835300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10991300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11141500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11359000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11055700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11099700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10454100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10605500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10504000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10695000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10067800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9884300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9640900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9356800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8762200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9005600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8859400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8492900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7863900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7394700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7462600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7782300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7711200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7621000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7571400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7399800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7308100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14685400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14882700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7219400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13822400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6754200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6447200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6258000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6275600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4404400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3595200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3898300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3440600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3528700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3359200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3647800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3434700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3528300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3054300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3297400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2848400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2886700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2909600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2504200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2730000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1131,26 +1151,29 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>501600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12300</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11145100</v>
+      </c>
+      <c r="E17" s="3">
         <v>10434600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9871500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9290600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9278600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9652600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9591700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9484200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9381700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9067500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8976500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9034300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9060100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8785100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8386100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8340500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8483100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7635900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7673600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2118700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1653500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1890700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1544700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1712700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1488900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1767300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1571500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1718000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1386600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1629000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1469700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1634900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1282700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1498200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1300400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>873700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1126300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1332000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>117900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>105000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>252700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>38800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2601700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2229100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2463900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2284300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2130400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1960200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2205600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1808400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1931000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1601500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1826700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1696900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1856800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1469300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1731500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1529000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1072500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1310300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1521600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8900</v>
+        <v>28700</v>
       </c>
       <c r="E22" s="3">
         <v>8900</v>
       </c>
       <c r="F22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G22" s="3">
         <v>14100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1762400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1986900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1783400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1680800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1509600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1560800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1704300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1376300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1610500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1456600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1612600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1244800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1494100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1292000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>874400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1118500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1331100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>524400</v>
+      </c>
+      <c r="E24" s="3">
         <v>301000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>464800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>477900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>428100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>257500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>425500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>415200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>435700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>235500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>319200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>408200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>513500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>188500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>305600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>308800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>169600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>231300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>271400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1569600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1461500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1522100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1305400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1252600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1252100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1375200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1145500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1268600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1140700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1291300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1048400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1099100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1056300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1188500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>983200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>704800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>887200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1059700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1440900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1287900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1228200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1234700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1357000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1130400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1249500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1124400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1274700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1029500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1083900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1123700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>932500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>669500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>838800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1004500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,17 +2034,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-40900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-117900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-105000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-252700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-38800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1440900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1287900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1228200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1234700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1357000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1130400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1249500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1124400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1274700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1029500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1043000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>863700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1123700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>932500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>669500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>838800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1004500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1440900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1287900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1228200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1234700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1357000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1130400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1249500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1124400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1274700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1029500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1043000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>863700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1123700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>932500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>669500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>838800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1004500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,90 +2573,94 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10009400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9166600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8594000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8415300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6442300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5436500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5810500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6126900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4769200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4464900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4363800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5061400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3928800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3595100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3681700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4126900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3382200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3238900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4077100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E42" s="3">
         <v>3500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3300</v>
       </c>
       <c r="J42" s="3">
         <v>3300</v>
@@ -2579,102 +2669,108 @@
         <v>3300</v>
       </c>
       <c r="L42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="M42" s="3">
         <v>3100</v>
       </c>
       <c r="N42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O42" s="3">
         <v>3200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>2500</v>
       </c>
       <c r="U42" s="3">
         <v>2500</v>
       </c>
       <c r="V42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9473400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8725400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8547700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7846900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8345600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8517900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8577400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8095100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8134100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8151400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8023100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7496400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7446700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7511300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7458000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6885300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6741700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6563900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6469000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2831,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1657600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1665200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1401200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1393200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1354700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1447200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1214900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1225400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1235000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1213900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1150400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1024600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>958100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1175200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1163500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1082200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1079200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>958700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>819800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21144900</v>
+      </c>
+      <c r="E46" s="3">
         <v>19560700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18626100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17749800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16146200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15405300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15606100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15450600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14141700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13833300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13540400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13585600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12336900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12284900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12303800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12097300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11205700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10764000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11368400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E47" s="3">
         <v>350600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>343400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>323700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>340800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>336800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>311300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>255000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>249800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>258300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>238600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>251000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>254300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>266500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>252500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>250400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>243300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>290800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4667900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4646500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4606900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4728900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4668000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4607100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4540900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1391200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1341500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1282800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1243300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1264000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1228900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1196200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1159000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1140600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1041000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>968400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>928900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10361100</v>
+      </c>
+      <c r="E49" s="3">
         <v>9960700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9208400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8739000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8366600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7606800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7129300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7046300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6922700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6514700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6219600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6070100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5963500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6015000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5770700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5712700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5253700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4797100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4560100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5583000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5466800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5483500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5493100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5552800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5543500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5557500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5590500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5495500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5509600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5444800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3290800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3470400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3382500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3474100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3486700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3384700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3306000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3295500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42124900</v>
+      </c>
+      <c r="E54" s="3">
         <v>39985400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38268300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37078600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35057300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33503400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33170700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29789900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28156400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27390200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26706400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24449100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23250800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23133000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22974200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22689900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21135600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20078800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20443700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,117 +3533,121 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1740400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1513400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1349900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1406000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1526100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1581100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1646600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1563000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1472100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1355500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1348800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1389000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1367500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1316900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1525100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1291100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1212800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1163300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2900</v>
       </c>
       <c r="S58" s="3">
         <v>2900</v>
@@ -3522,261 +3656,276 @@
         <v>2900</v>
       </c>
       <c r="U58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="V58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12993500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12341200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11296700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11304900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10413600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9644700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9614600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9408800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8984900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8742600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8816100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8797600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8161800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7997500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8543100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8296300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7860200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7137000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8004000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14929600</v>
+      </c>
+      <c r="E60" s="3">
         <v>14090700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12819100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12662600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11828300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11177600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11199400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11061900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10552000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10219000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10176300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10151800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9553600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9367900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9863000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9824300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9154300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8352800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9170100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E61" s="3">
         <v>59300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>59900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>54100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>60300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>22200</v>
       </c>
       <c r="R61" s="3">
         <v>22200</v>
       </c>
       <c r="S61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="T61" s="3">
         <v>24700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7239700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6993000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6963100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6862800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6685100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6391900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6354200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3884000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3441600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3422900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3454600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3553100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3518500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3195500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3133200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3079900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3086300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3214900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22782000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21677400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20361800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20078100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19042700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18028800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18003600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15380900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14419000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14053200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14027600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14084300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13453500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13450300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13872000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13740400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12968200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12114500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13026600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15004300</v>
+      </c>
+      <c r="E72" s="3">
         <v>14035800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13276700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12375500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12565900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11867500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11236300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10421500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11709300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11422000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10384100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7952400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8296800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8149100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7339200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7081900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8844800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8953200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8113500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19342800</v>
+      </c>
+      <c r="E76" s="3">
         <v>18308000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17906500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16014600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15474600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15167100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14409000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13737300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13337000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12678900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10364800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9797300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9682700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9102100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8949500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8167400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7964200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7417100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1440900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1287900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1228200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1234700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1357000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1130400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1249500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1124400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1274700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1029500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1043000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>863700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1123700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>932500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>669500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>838800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1004500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E83" s="3">
         <v>457800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>468200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>486900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>444700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>442100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>399500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>240200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>221300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>211700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>235100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>238400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>220700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>232600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>232100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>194500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>187800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>187400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2401200</v>
+      </c>
+      <c r="E89" s="3">
         <v>2534700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1602800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3156100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2741500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1530600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>786900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2116300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2123500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1359700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1027500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2109300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1987500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>924100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1005800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1941900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1792600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>154700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1083900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-188700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-150000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-165400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-95100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-241300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-139800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-179400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-173600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-132900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-133400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-191100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-135800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-104400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-84600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-572700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-439400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-446400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-246300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-885000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-597300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-165900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-375900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-655200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-451700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-272900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-375000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-270000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-345700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-259000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-652400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-547700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-344200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-689600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-558500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-560400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-557400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-507300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-509600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-510600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-507700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-930300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-931500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-853800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-817200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-782500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-785100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1012400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-999500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-798100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-948200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-351000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-831900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-531600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-703200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-592600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-681300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E101" s="3">
         <v>23900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>21700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>76800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-52600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-18200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-31700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-70200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-88600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>47700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>32600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-60000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>842800</v>
+      </c>
+      <c r="E102" s="3">
         <v>572600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>178700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1973100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1005800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-374100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-316300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1357700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>304300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>101100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-697600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1132500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>333800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-86600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-445100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>744700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>143300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-838200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-828600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13419300</v>
+      </c>
+      <c r="E8" s="3">
         <v>13263800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12088100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11762200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10835300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10991300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11141500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11359000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11055700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11099700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10454100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10605500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10504000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10695000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10067800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9884300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9640900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9356800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8762200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9005600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8953100</v>
+      </c>
+      <c r="E9" s="3">
         <v>8859400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8492900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7863900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7394700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7462600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7782300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7711200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7621000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7571400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7399800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7308100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14685400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14882700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7219400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13822400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6754200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6447200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6258000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6275600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4466200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4404400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3595200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3898300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3440600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3528700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3359200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3647800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3434700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3528300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3054300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3297400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2848400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2886700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2909600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2504200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2730000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1154,26 +1174,29 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>501600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12300</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11460600</v>
+      </c>
+      <c r="E17" s="3">
         <v>11145100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10434600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9871500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9290600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9278600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9652600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9591700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9484200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9381700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9067500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8976500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9034300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9060100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8785100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8386100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8340500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8483100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7635900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7673600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1958700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2118700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1653500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1890700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1544700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1712700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1488900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1767300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1571500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1718000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1386600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1629000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1469700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1634900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1282700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1498200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1300400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>873700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1126300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1332000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>117900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>105000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>252700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>38800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2417100</v>
+      </c>
+      <c r="E21" s="3">
         <v>2601700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2229100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2463900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2284300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2130400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1960200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2205600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1808400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1931000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1601500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1826700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1696900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1856800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1469300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1731500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1529000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1072500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1310300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1521600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8900</v>
       </c>
       <c r="F22" s="3">
         <v>8900</v>
       </c>
       <c r="G22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H22" s="3">
         <v>14100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1917800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2094000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1762400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1986900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1783400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1680800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1509600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1560800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1704300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1376300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1610500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1456600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1612600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1244800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1494100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1292000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>874400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1118500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1331100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>480400</v>
+      </c>
+      <c r="E24" s="3">
         <v>524400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>301000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>464800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>477900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>428100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>257500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>425500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>415200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>435700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>235500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>319200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>408200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>513500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>188500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>305600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>308800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>169600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>231300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>271400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1437400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1569600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1461500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1522100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1305400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1252600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1252100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1375200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1145500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1268600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1140700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1291300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1048400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1099100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1056300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1188500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>983200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>704800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>887200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1059700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1549400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1440900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1287900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1228200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1234700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1357000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1130400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1249500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1124400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1274700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1029500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1083900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1123700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>932500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>669500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>838800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1004500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2057,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2037,17 +2098,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-117900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-105000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-252700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-38800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1549400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1440900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1287900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1228200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1234700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1357000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1130400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1249500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1124400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1274700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1029500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>863700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1123700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>932500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>669500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>838800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1004500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1549400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1440900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1287900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1228200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1234700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1357000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1130400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1249500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1124400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1274700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1029500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>863700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1123700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>932500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>669500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>838800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1004500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,96 +2660,100 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8168200</v>
+      </c>
+      <c r="E41" s="3">
         <v>10009400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9166600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8594000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8415300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6442300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5436500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5810500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6126900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4769200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4464900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4363800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5061400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3928800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3595100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3681700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4126900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3382200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3238900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4077100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>4400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3300</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -2672,105 +2762,111 @@
         <v>3300</v>
       </c>
       <c r="M42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="N42" s="3">
         <v>3100</v>
       </c>
       <c r="O42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P42" s="3">
         <v>3200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2600</v>
-      </c>
-      <c r="U42" s="3">
-        <v>2500</v>
       </c>
       <c r="V42" s="3">
         <v>2500</v>
       </c>
       <c r="W42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9728200</v>
+      </c>
+      <c r="E43" s="3">
         <v>9473400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8725400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8547700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7846900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8345600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8517900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8577400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8095100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8134100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8151400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8023100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7496400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7446700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7511300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7458000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6885300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6741700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6563900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6469000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,333 +2930,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1657600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1665200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1401200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1393200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1354700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1447200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1214900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1225400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1235000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1213900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1150400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1024600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>958100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1175200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1163500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1082200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1079200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>958700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>819800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19666500</v>
+      </c>
+      <c r="E46" s="3">
         <v>21144900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19560700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18626100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17749800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16146200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15405300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15606100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15450600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14141700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13833300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13540400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13585600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12336900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12284900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12303800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12097300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11205700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10764000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11368400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367900</v>
+      </c>
+      <c r="E47" s="3">
         <v>368000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>350600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>343400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>367800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>323700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>340800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>336800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>311300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>255000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>249800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>258300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>238600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>251000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>254300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>266500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>252500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>250400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>243300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>290800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4667900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4646500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4606900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4728900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4668000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4607100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4540900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1391200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1341500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1282800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1243300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1264000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1228900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1196200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1159000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1140600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1041000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>968400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>928900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12836800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10361100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9960700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9208400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8739000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8366600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7606800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7129300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7046300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6922700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6514700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6219600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6070100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5963500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6015000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5770700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5712700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5253700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4797100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4560100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5483000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5583000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5466800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5483500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5493100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5552800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5543500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5557500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5590500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5495500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5509600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5444800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3290800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3470400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3382500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3474100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3486700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3384700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3306000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3295500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43175800</v>
+      </c>
+      <c r="E54" s="3">
         <v>42124900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39985400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38268300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37078600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35057300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33503400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33170700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29789900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28156400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27390200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26706400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24449100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23250800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23133000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22974200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22689900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21135600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20078800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20443700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,123 +3664,127 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2274100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1926900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1740400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1513400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1349900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1406000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1526100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1581100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1646600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1563000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1472100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1355500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1348800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1389000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1367500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1316900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1525100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1291100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1212800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1163300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2900</v>
       </c>
       <c r="T58" s="3">
         <v>2900</v>
@@ -3659,273 +3793,288 @@
         <v>2900</v>
       </c>
       <c r="V58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="W58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13422700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12993500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12341200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11296700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11304900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10413600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9644700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9614600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9408800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8984900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8742600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8816100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8797600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8161800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7997500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8543100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8296300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7860200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7137000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8004000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15708900</v>
+      </c>
+      <c r="E60" s="3">
         <v>14929600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14090700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12819100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12662600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11828300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11177600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11199400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11061900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10552000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10219000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10176300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10151800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9553600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9367900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9863000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9824300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9154300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8352800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9170100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E61" s="3">
         <v>61600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>59300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>59900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>54100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>60300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>22200</v>
       </c>
       <c r="S61" s="3">
         <v>22200</v>
       </c>
       <c r="T61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="U61" s="3">
         <v>24700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7316400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7239700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6993000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6963100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6862800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6685100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6391900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6354200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3884000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3441600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3422900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3454600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3553100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3518500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3300700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3195500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3133200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3079900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3086300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3214900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23646400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22782000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21677400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20361800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20078100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19042700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18028800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18003600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15380900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14419000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14053200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14027600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14084300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13453500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13450300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13872000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13740400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12968200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12114500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13026600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13988700</v>
+      </c>
+      <c r="E72" s="3">
         <v>15004300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14035800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13276700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12375500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12565900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11867500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11236300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10421500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11709300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11422000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10384100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7952400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8296800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8149100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7339200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7081900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8844800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8953200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8113500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19529500</v>
+      </c>
+      <c r="E76" s="3">
         <v>19342800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18308000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17906500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17000500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16014600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15474600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15167100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14409000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13737300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13337000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12678900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10364800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9797300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9682700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9102100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8949500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8167400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7964200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7417100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1549400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1440900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1287900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1228200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1234700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1357000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1130400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1249500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1124400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1274700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1029500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>863700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1123700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>932500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>669500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>838800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1004500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>486300</v>
+      </c>
+      <c r="E83" s="3">
         <v>479000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>468200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>486900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>444700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>442100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>399500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>240200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>221300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>219600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>211700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>235100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>238400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>220700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>232600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>232100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>194500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>187800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>187400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2436400</v>
+      </c>
+      <c r="E89" s="3">
         <v>2401200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2534700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1602800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3156100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2741500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1530600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>786900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2116300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2123500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1359700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1027500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2109300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1987500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>924100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1005800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1941900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1792600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>154700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1083900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-236300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-158200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-93100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-188700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-150000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-165400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-95100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-241300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-139800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-179400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-173600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-132900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-133400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-191100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-135800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-104400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-84600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2851300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-572700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-439400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-446400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-246300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-885000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-597300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-165900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-375900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-655200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-451700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-375000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-270000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-345700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-259000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-652400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-547700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-344200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-689600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-557300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-558500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-560400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-557400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-507300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-509600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-510600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-507700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-930300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-931500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-853800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-817200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-782500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-785100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1367800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-999500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-798100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-948200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-351000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-831900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-531600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-703200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-592600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-681300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E101" s="3">
         <v>26700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>23900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>21700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>76800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-52600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-31700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-70200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-88600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>47700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>32600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-60000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1841200</v>
+      </c>
+      <c r="E102" s="3">
         <v>842800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>572600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>178700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1973100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1005800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-374100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-316300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1357700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>304300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>101100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-697600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1132500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>333800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-86600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-445100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>744700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>143300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-838200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-828600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14965200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13419300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13263800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12088100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11762200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10835300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10991300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11141500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11359000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11055700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11099700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10454100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10605500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10504000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10695000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10067800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9884300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9640900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9356800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8762200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9005600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10048400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8953100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8859400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8492900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7863900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7394700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7462600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7782300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7711200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7621000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7571400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7399800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7308100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14685400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14882700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7219400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13822400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6754200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6447200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6258000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6275600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4916800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4466200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4404400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3595200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3898300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3440600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3528700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3359200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3647800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3434700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3528300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3054300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3297400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2848400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2886700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2909600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2504200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2730000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1177,26 +1196,29 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>501600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12300</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12530900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11460600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11145100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10434600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9871500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9290600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9278600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9652600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9591700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9484200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9381700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9067500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8976500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9034300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9060100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8785100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8386100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8340500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8483100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7635900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7673600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2434300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1958700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2118700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1653500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1890700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1544700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1712700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1488900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1767300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1571500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1718000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1386600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1629000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1469700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1634900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1282700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1498200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1300400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>873700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1126300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1332000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>117900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>105000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>252700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2918200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2417100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2601700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2229100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2463900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2284300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2130400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1960200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2205600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1808400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1931000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1601500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1826700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1696900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1856800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1469300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1731500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1529000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1072500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1310300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1521600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8900</v>
       </c>
       <c r="G22" s="3">
         <v>8900</v>
       </c>
       <c r="H22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2406100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1917800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2094000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1762400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1986900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1783400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1680800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1509600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1560800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1704300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1376300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1610500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1456600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1612600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1244800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1494100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1292000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>874400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1118500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1331100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>586400</v>
+      </c>
+      <c r="E24" s="3">
         <v>480400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>524400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>301000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>464800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>477900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>428100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>257500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>425500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>415200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>435700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>235500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>319200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>408200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>513500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>188500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>305600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>308800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>169600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>231300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>271400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1819700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1437400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1569600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1461500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1522100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1305400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1252600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1252100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1375200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1145500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1268600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1140700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1291300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1048400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1099100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1056300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1188500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>983200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>704800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>887200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1059700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1416200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1549400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1440900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1287900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1228200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1234700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1357000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1130400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1249500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1124400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1274700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1029500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1083900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1123700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>932500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>669500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>838800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1004500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2146,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2101,17 +2161,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-40900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-117900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-105000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-252700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1416200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1549400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1440900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1287900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1228200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1234700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1357000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1130400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1249500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1124400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1274700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1029500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1043000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>863700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1123700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>932500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>669500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>838800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1004500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1416200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1549400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1440900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1287900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1228200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1234700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1357000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1130400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1249500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1124400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1274700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1029500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1043000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>863700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1123700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>932500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>669500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>838800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1004500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,102 +2746,106 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5637100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8168200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10009400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9166600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8594000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8415300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6442300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5436500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5810500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6126900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4769200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4464900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4363800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5061400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3928800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3595100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3681700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4126900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3382200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3238900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4077100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3300</v>
       </c>
       <c r="L42" s="3">
         <v>3300</v>
@@ -2765,108 +2854,114 @@
         <v>3300</v>
       </c>
       <c r="N42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="O42" s="3">
         <v>3100</v>
       </c>
       <c r="P42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2600</v>
-      </c>
-      <c r="V42" s="3">
-        <v>2500</v>
       </c>
       <c r="W42" s="3">
         <v>2500</v>
       </c>
       <c r="X42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11120400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9728200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9473400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8725400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8547700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7846900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8345600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8517900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8577400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8095100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8134100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8151400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8023100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7496400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7446700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7511300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7458000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6885300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6741700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6563900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6469000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3028,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1765800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1657600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1665200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1401200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1393200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1354700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1447200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1214900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1225400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1235000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1213900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1150400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1024600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>958100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1175200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1163500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1082200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1079200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>958700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>819800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18621700</v>
+      </c>
+      <c r="E46" s="3">
         <v>19666500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21144900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19560700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18626100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17749800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16146200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15405300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15606100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15450600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14141700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13833300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13540400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13585600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12336900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12284900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12303800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12097300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11205700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10764000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11368400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367300</v>
+      </c>
+      <c r="E47" s="3">
         <v>367900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>368000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>350600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>343400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>367800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>323700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>340800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>336800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>311300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>255000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>249800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>258300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>238600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>251000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>254300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>266500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>252500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>250400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>243300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>290800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4811100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4821600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4667900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4646500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4606900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4728900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4668000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4607100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4540900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1391200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1341500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1282800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1243300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1264000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1228900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1196200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1159000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1140600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1041000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>968400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>928900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14341400</v>
+      </c>
+      <c r="E49" s="3">
         <v>12836800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10361100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9960700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9208400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8739000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8366600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7606800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7129300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7046300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6922700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6514700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6219600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6070100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5963500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6015000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5770700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5712700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5253700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4797100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4560100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5533300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5483000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5583000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5466800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5483500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5493100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5552800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5543500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5557500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5590500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5495500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5509600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5444800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3290800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3470400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3382500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3474100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3486700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3384700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3306000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3295500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43674700</v>
+      </c>
+      <c r="E54" s="3">
         <v>43175800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42124900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39985400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38268300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37078600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35057300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33503400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33170700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29789900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28156400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27390200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26706400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24449100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23250800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23133000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22974200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22689900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21135600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20078800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20443700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,129 +3794,133 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2210200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2274100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1926900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1740400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1513400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1349900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1406000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1526100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1581100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1646600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1563000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1472100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1355500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1348800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1389000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1367500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1316900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1525100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1291100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1212800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1163300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
         <v>12100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2900</v>
       </c>
       <c r="U58" s="3">
         <v>2900</v>
@@ -3796,285 +3929,300 @@
         <v>2900</v>
       </c>
       <c r="W58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="X58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13012800</v>
+      </c>
+      <c r="E59" s="3">
         <v>13422700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12993500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12341200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11296700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11304900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10413600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9644700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9614600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9408800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8984900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8742600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8816100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8797600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8161800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7997500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8543100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8296300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7860200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7137000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8004000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15232000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15708900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14929600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14090700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12819100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12662600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11828300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11177600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11199400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11061900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10552000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10219000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10176300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10151800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9553600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9367900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9863000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9824300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9154300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8352800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9170100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E61" s="3">
         <v>53500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>61600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>59300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>59900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>54100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>60300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25900</v>
-      </c>
-      <c r="S61" s="3">
-        <v>22200</v>
       </c>
       <c r="T61" s="3">
         <v>22200</v>
       </c>
       <c r="U61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="V61" s="3">
         <v>24700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7448200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7316400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7239700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6993000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6963100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6862800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6685100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6391900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6354200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3884000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3441600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3422900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3454600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3553100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3518500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3300700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3195500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3133200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3079900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3086300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3214900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23321500</v>
+      </c>
+      <c r="E66" s="3">
         <v>23646400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22782000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21677400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20361800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20078100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19042700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18028800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18003600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15380900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14419000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14053200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14027600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14084300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13453500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13450300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13872000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13740400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12968200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12114500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13026600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15110700</v>
+      </c>
+      <c r="E72" s="3">
         <v>13988700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15004300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14035800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13276700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12375500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12565900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11867500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11236300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10421500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11709300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11422000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10384100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7952400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8296800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8149100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7339200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7081900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8844800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8953200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8113500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20353200</v>
+      </c>
+      <c r="E76" s="3">
         <v>19529500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19342800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18308000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17906500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17000500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16014600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15474600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15167100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14409000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13737300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13337000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12678900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10364800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9797300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9682700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9102100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8949500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8167400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7964200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7417100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1416200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1549400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1440900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1287900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1228200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1234700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1357000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1130400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1249500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1124400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1274700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1029500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1043000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>863700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1123700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>932500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>669500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>838800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1004500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500900</v>
+      </c>
+      <c r="E83" s="3">
         <v>486300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>479000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>468200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>486900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>444700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>442100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>399500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>240200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>221300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>219600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>211700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>235100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>238400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>220700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>232600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>232100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>194500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>187800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>187400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>530900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2436400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2401200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2534700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1602800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3156100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2741500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1530600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>786900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2116300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2123500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1359700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1027500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2109300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1987500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>924100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1005800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1941900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1792600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>154700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1083900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-181700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-236300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-158200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-92500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-93100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-188700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-150000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-165400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-95100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-241300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-139800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-179400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-173600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-132900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-133400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-191100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-135800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-104400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-84600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1912600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-572700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-439400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-446400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-246300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-885000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-597300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-375900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-655200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-451700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-272900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-375000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-270000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-345700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-259000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-652400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-547700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-344200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-689600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-612500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-557300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-558500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-560400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-557400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-507300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-509600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-510600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-507700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-930300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-931500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-853800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-817200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-782500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-785100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1069500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-999500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-798100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-948200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-351000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-831900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-531600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-703200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-592600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-681300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-58500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>23900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>21700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>76800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-52600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-31700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-42000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-70200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-88600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>47700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>32600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-60000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2531100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>842800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>572600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>178700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1973100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1005800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-374100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-316300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1357700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>304300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>101100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-697600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1132500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>333800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-445100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>744700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>143300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-838200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-828600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15046700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14965200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13419300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13263800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12088100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11762200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10835300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10991300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11141500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11359000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11055700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11099700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10454100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10605500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10504000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10695000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10067800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9884300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9640900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9356800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8762200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9005600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10522700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10048400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8953100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8859400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8492900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7863900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7394700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7462600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7782300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7711200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7621000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7571400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7399800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7308100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14685400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14882700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7219400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13822400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6754200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6447200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6258000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6275600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4524000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4916800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4466200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4404400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3595200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3898300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3440600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3528700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3359200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3647800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3434700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3528300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3054300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3297400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2848400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2886700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2909600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2504200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2730000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1190,8 +1210,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1199,26 +1219,29 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-3900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>501600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12300</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12985100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12530900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11460600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11145100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10434600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9871500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9290600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9278600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9652600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9591700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9484200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9381700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9067500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8976500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9034300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9060100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8785100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8386100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8340500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8483100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7635900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7673600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2061600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2434300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1958700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2118700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1653500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1890700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1544700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1712700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1488900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1767300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1571500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1718000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1386600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1629000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1469700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1634900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1282700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1498200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1300400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>873700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1126300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1332000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>117900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>105000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>252700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2589900</v>
+      </c>
+      <c r="E21" s="3">
         <v>2918200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2417100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2601700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2229100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2463900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2284300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2130400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1960200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2205600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1808400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1931000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1601500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1826700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1696900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1856800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1469300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1731500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1529000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1072500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1310300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1521600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,212 +1672,221 @@
         <v>11200</v>
       </c>
       <c r="E22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8900</v>
       </c>
       <c r="H22" s="3">
         <v>8900</v>
       </c>
       <c r="I22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2050500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2406100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1917800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2094000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1762400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1986900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1783400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1680800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1509600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1560800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1704300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1376300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1610500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1456600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1612600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1244800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1494100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1292000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>874400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1118500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1331100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E24" s="3">
         <v>586400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>480400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>524400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>301000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>464800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>477900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>428100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>257500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>425500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>415200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>435700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>235500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>319200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>408200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>513500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>188500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>305600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>308800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>169600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>231300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>271400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1657500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1819700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1437400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1569600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1461500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1522100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1305400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1252600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1252100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1375200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1145500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1268600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1140700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1291300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1048400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1099100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1056300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1188500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>983200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>704800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>887200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1059700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1634900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1791000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1416200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1549400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1440900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1287900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1228200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1234700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1357000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1130400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1249500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1124400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1274700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1029500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1083900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1123700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>932500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>669500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>838800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1004500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2149,8 +2210,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2164,17 +2225,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-40900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-117900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-105000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-252700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1634900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1791000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1416200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1549400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1440900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1287900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1228200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1234700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1357000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1130400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1249500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1124400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1274700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1029500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1043000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>863700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1123700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>932500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>669500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>838800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1004500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1634900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1791000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1416200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1549400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1440900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1287900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1228200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1234700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1357000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1130400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1249500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1124400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1274700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1029500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1043000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>863700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1123700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>932500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>669500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>838800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1004500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,108 +2833,112 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5466100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5637100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8168200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10009400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9166600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8594000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8415300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6442300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5436500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5810500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6126900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4769200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4464900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4363800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5061400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3928800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3595100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3681700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4126900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3382200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3238900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4077100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>94300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3600</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3300</v>
       </c>
       <c r="M42" s="3">
         <v>3300</v>
@@ -2857,111 +2947,117 @@
         <v>3300</v>
       </c>
       <c r="O42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="P42" s="3">
         <v>3100</v>
       </c>
       <c r="Q42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R42" s="3">
         <v>3200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2600</v>
-      </c>
-      <c r="W42" s="3">
-        <v>2500</v>
       </c>
       <c r="X42" s="3">
         <v>2500</v>
       </c>
       <c r="Y42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11590900</v>
+      </c>
+      <c r="E43" s="3">
         <v>11120400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9728200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9473400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8725400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8547700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7846900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8345600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8517900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8577400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8095100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8134100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8151400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8023100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7496400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7446700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7511300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7458000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6885300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6741700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6563900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6469000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2122100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1857200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1765800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1657600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1665200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1401200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1393200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1354700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1447200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1214900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1225400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1235000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1213900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1150400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1024600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>958100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1175200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1163500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1082200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1079200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>958700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>819800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19185100</v>
+      </c>
+      <c r="E46" s="3">
         <v>18621700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19666500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21144900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19560700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18626100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17749800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16146200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15405300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15606100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15450600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14141700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13833300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13540400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13585600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12336900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12284900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12303800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12097300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11205700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10764000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11368400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>376300</v>
+      </c>
+      <c r="E47" s="3">
         <v>367300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>368000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>350600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>343400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>367800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>323700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>340800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>336800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>311300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>255000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>249800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>258300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>238600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>251000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>254300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>266500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>252500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>250400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>243300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>290800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4905700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4811100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4821600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4667900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4646500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4606900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4728900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4668000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4607100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4540900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1391200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1341500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1282800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1243300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1264000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1228900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1196200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1159000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1140600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1041000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>968400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>928900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14271900</v>
+      </c>
+      <c r="E49" s="3">
         <v>14341400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12836800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10361100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9960700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9208400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8739000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8366600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7606800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7129300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7046300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6922700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6514700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6219600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6070100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5963500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6015000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5770700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5712700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5253700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4797100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4560100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5578800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5533300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5483000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5583000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5466800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5483500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5493100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5552800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5543500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5557500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5590500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5495500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5509600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5444800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3290800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3470400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3382500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3474100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3486700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3384700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3306000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3295500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44317800</v>
+      </c>
+      <c r="E54" s="3">
         <v>43674700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43175800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42124900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39985400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38268300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37078600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35057300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33503400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33170700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29789900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28156400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27390200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26706400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24449100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23250800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23133000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22974200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22689900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21135600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20078800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20443700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2229200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2210200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2274100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1926900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1740400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1513400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1349900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1406000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1526100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1581100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1646600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1563000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1472100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1355500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1348800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1389000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1367500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1316900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1525100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1291100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1212800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1163300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,55 +4009,55 @@
         <v>9100</v>
       </c>
       <c r="E58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F58" s="3">
         <v>12100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2900</v>
       </c>
       <c r="V58" s="3">
         <v>2900</v>
@@ -3932,297 +4066,312 @@
         <v>2900</v>
       </c>
       <c r="X58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Y58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13301800</v>
+      </c>
+      <c r="E59" s="3">
         <v>13012800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13422700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12993500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12341200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11296700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11304900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10413600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9644700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9614600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9408800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8984900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8742600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8816100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8797600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8161800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7997500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8543100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8296300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7860200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7137000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8004000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15540100</v>
+      </c>
+      <c r="E60" s="3">
         <v>15232000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15708900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14929600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14090700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12819100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12662600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11828300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11177600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11199400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11061900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10552000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10219000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10176300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10151800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9553600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9367900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9863000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9824300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9154300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8352800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9170100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E61" s="3">
         <v>55900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>61600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>59300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>59900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>54100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>60300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25900</v>
-      </c>
-      <c r="T61" s="3">
-        <v>22200</v>
       </c>
       <c r="U61" s="3">
         <v>22200</v>
       </c>
       <c r="V61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="W61" s="3">
         <v>24700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7568600</v>
+      </c>
+      <c r="E62" s="3">
         <v>7448200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7316400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7239700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6993000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6963100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6862800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6685100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6391900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6354200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3884000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3441600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3422900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3454600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3553100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3518500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3300700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3195500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3133200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3079900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3086300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3214900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23757800</v>
+      </c>
+      <c r="E66" s="3">
         <v>23321500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23646400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22782000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21677400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20361800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20078100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19042700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18028800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18003600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15380900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14419000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14053200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14027600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14084300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13453500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13450300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13872000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13740400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12968200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12114500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13026600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16028400</v>
+      </c>
+      <c r="E72" s="3">
         <v>15110700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13988700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15004300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14035800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13276700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12375500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12565900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11867500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11236300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10421500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11709300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11422000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10384100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7952400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8296800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8149100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7339200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7081900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8844800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8953200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8113500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20560000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20353200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19529500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19342800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18308000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17906500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17000500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16014600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15474600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15167100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14409000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13737300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13337000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12678900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10364800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9797300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9682700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9102100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8949500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8167400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7964200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7417100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1634900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1791000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1416200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1549400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1440900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1287900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1228200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1234700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1357000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1130400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1249500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1124400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1274700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1029500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1043000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>863700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1123700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>932500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>669500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>838800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1004500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>528300</v>
+      </c>
+      <c r="E83" s="3">
         <v>500900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>486300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>479000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>468200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>486900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>444700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>442100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>399500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>240200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>221300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>219600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>211700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>235100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>238400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>220700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>232600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>232100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>194500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>187800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>187400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2155500</v>
+      </c>
+      <c r="E89" s="3">
         <v>530900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2436400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2401200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2534700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1602800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3156100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2741500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1530600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>786900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2116300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2123500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1359700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1027500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2109300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1987500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>924100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1005800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1941900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1792600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>154700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1083900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-164700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-181700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-236300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-158200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-92500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-188700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-150000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-165400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-95100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-241300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-140300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-139800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-179400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-173600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-132900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-133400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-191100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-135800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-104400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-84600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-572700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-439400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-446400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-246300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-885000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-597300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-375900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-655200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-451700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-272900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-375000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-270000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-345700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-259000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-652400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-547700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-344200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-689600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-615900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-612500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-557300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-558500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-560400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-557400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-507300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-509600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-510600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-507700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-930300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-931500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-853800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-817200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-782500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-785100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2036700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-999500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-798100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-948200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-351000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-831900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-531600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-703200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-592600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-681300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-79900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-58500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>23900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>21700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>76800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-52600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-31700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-42000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>25000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-70200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-88600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>38200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>47700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>22000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>32600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>842800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>572600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>178700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1973100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1005800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-374100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-316300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1357700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>304300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>101100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-697600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1132500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>333800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-445100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>744700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>143300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-838200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-828600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16158800</v>
+      </c>
+      <c r="E8" s="3">
         <v>15046700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14965200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13419300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13263800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12088100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11762200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10835300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10991300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11141500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11359000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11055700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11099700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10454100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10605500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10504000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10695000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10067800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9884300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9640900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9356800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8762200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9005600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10844100</v>
+      </c>
+      <c r="E9" s="3">
         <v>10522700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10048400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8953100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8859400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8492900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7863900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7394700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7462600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7782300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7711200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7621000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7571400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7399800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7308100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14685400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14882700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7219400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13822400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6754200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6447200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6258000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6275600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5314700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4524000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4916800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4466200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4404400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3595200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3898300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3440600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3528700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3359200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3647800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3434700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3528300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3054300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3297400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2848400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2886700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2909600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2504200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2730000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>96300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1222,26 +1242,29 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-3900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>501600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12300</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13652000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12985100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12530900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11460600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11145100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10434600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9871500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9290600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9278600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9652600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9591700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9484200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9381700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9067500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8976500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9034300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9060100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8785100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8386100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8340500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8483100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7635900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7673600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2506800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2061600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2434300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1958700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2118700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1653500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1890700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1544700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1712700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1488900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1767300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1571500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1718000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1386600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1629000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1469700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1634900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1282700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1498200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1300400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>873700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1126300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1332000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>117900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>105000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>252700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3030900</v>
+      </c>
+      <c r="E21" s="3">
         <v>2589900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2918200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2417100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2601700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2229100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2463900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2284300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2130400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1960200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2205600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1808400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1931000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1601500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1826700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1696900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1856800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1469300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1731500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1529000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1072500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1310300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1521600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="E22" s="3">
         <v>11200</v>
       </c>
       <c r="F22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8900</v>
       </c>
       <c r="I22" s="3">
         <v>8900</v>
       </c>
       <c r="J22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K22" s="3">
         <v>14100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2494600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2050500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2406100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1917800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2094000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1762400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1986900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1783400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1680800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1509600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1560800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1704300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1376300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1610500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1456600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1612600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1244800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1494100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1292000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>874400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1118500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1331100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>675300</v>
+      </c>
+      <c r="E24" s="3">
         <v>392900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>586400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>480400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>524400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>301000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>464800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>477900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>428100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>257500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>425500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>415200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>435700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>235500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>319200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>408200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>513500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>188500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>305600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>308800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>169600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>231300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>271400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1819300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1657500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1819700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1437400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1569600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1461500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1522100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1305400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1252600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1252100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1375200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1145500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1268600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1140700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1291300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1048400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1099100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1056300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1188500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>983200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>704800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>887200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1059700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1786100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1634900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1791000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1416200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1549400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1440900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1287900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1228200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1234700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1357000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1130400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1249500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1124400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1274700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1029500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1083900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1123700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>932500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>669500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>838800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1004500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2228,17 +2289,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-40900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-117900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-105000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-252700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1786100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1634900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1791000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1416200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1549400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1440900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1287900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1228200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1234700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1357000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1130400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1249500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1124400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1274700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1029500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1043000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>863700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1123700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>932500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>669500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>838800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1004500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1786100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1634900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1791000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1416200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1549400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1440900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1287900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1228200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1234700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1357000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1130400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1249500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1124400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1274700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1029500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1043000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>863700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1123700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>932500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>669500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>838800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1004500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,114 +2920,118 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6703600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5466100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5637100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8168200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10009400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9166600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8594000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8415300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6442300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5436500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5810500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6126900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4769200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4464900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4363800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5061400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3928800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3595100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3681700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4126900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3382200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3238900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4077100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>94300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3300</v>
       </c>
       <c r="N42" s="3">
         <v>3300</v>
@@ -2950,114 +3040,120 @@
         <v>3300</v>
       </c>
       <c r="P42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="Q42" s="3">
         <v>3100</v>
       </c>
       <c r="R42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S42" s="3">
         <v>3200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2600</v>
-      </c>
-      <c r="X42" s="3">
-        <v>2500</v>
       </c>
       <c r="Y42" s="3">
         <v>2500</v>
       </c>
       <c r="Z42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12219100</v>
+      </c>
+      <c r="E43" s="3">
         <v>11590900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11120400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9728200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9473400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8725400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8547700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7846900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8345600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8517900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8577400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8095100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8134100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8151400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8023100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7496400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7446700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7511300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7458000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6885300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6741700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6563900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6469000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,378 +3226,396 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2080800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2122100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1857200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1765800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1657600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1665200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1401200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1393200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1354700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1447200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1214900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1225400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1235000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1213900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1150400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1024600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>958100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1175200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1163500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1082200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1079200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>958700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>819800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21007700</v>
+      </c>
+      <c r="E46" s="3">
         <v>19185100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18621700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19666500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21144900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19560700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18626100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17749800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16146200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15405300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15606100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15450600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14141700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13833300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13540400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13585600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12336900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12284900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12303800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12097300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11205700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10764000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11368400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E47" s="3">
         <v>376300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>368000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>350600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>343400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>367800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>323700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>340800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>336800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>311300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>255000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>249800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>258300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>238600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>251000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>254300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>266500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>252500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>250400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>243300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>290800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4844100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4905700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4811100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4821600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4667900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4646500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4606900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4728900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4668000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4607100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4540900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1391200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1341500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1282800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1243300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1264000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1228900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1196200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1159000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1140600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1041000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>968400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>928900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14320700</v>
+      </c>
+      <c r="E49" s="3">
         <v>14271900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14341400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12836800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10361100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9960700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9208400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8739000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8366600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7606800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7129300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7046300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6922700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6514700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6219600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6070100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5963500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6015000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5770700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5712700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5253700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4797100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4560100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5555400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5578800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5533300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5483000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5583000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5466800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5483500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5493100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5552800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5543500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5557500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5590500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5495500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5509600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5444800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3290800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3470400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3382500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3474100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3486700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3384700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3306000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3295500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46095200</v>
+      </c>
+      <c r="E54" s="3">
         <v>44317800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43674700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43175800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42124900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39985400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38268300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37078600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35057300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33503400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33170700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29789900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28156400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27390200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26706400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24449100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23250800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23133000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22974200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22689900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21135600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20078800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20443700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,141 +4056,145 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2384400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2229200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2210200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2274100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1926900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1740400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1513400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1349900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1406000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1526100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1581100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1646600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1563000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1472100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1355500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1348800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1389000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1367500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1316900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1525100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1291100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1212800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1163300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="E58" s="3">
         <v>9100</v>
       </c>
       <c r="F58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G58" s="3">
         <v>12100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2900</v>
       </c>
       <c r="W58" s="3">
         <v>2900</v>
@@ -4069,309 +4203,324 @@
         <v>2900</v>
       </c>
       <c r="Y58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Z58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14169500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13301800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13012800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13422700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12993500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12341200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11296700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11304900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10413600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9644700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9614600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9408800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8984900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8742600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8816100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8797600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8161800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7997500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8543100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8296300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7860200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7137000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8004000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16562600</v>
+      </c>
+      <c r="E60" s="3">
         <v>15540100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15232000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15708900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14929600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14090700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12819100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12662600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11828300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11177600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11199400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11061900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10552000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10219000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10176300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10151800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9553600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9367900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9863000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9824300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9154300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8352800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9170100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E61" s="3">
         <v>52200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>55900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>53500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>61600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>59300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>59900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>60300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25900</v>
-      </c>
-      <c r="U61" s="3">
-        <v>22200</v>
       </c>
       <c r="V61" s="3">
         <v>22200</v>
       </c>
       <c r="W61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="X61" s="3">
         <v>24700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7469300</v>
+      </c>
+      <c r="E62" s="3">
         <v>7568600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7448200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7316400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7239700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6993000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6963100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6862800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6685100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6391900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6354200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3884000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3441600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3422900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3454600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3553100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3518500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3300700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3195500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3133200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3079900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3086300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3214900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24706100</v>
+      </c>
+      <c r="E66" s="3">
         <v>23757800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23321500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23646400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22782000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21677400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20361800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20078100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19042700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18028800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18003600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15380900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14419000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14053200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14027600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14084300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13453500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13450300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13872000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13740400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12968200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12114500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13026600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17177400</v>
+      </c>
+      <c r="E72" s="3">
         <v>16028400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15110700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13988700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15004300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14035800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13276700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12375500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12565900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11867500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11236300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10421500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11709300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11422000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10384100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7952400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8296800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8149100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7339200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7081900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8844800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8953200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8113500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21389100</v>
+      </c>
+      <c r="E76" s="3">
         <v>20560000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20353200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19529500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19342800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18308000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17906500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17000500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16014600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15474600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15167100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14409000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13737300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13337000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12678900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10364800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9797300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9682700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9102100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8949500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8167400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7964200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7417100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1786100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1634900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1791000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1416200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1549400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1440900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1287900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1228200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1234700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1357000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1130400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1249500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1124400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1274700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1029500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1043000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>863700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1123700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>932500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>669500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>838800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1004500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>524200</v>
+      </c>
+      <c r="E83" s="3">
         <v>528300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>486300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>479000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>457800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>468200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>486900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>444700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>442100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>399500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>240200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>221300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>219600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>211700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>235100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>238400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>220700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>232600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>232100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>194500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>187800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>187400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3064700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2155500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>530900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2436400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2401200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2534700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1602800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3156100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2741500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1530600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>786900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2116300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2123500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1359700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1027500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2109300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1987500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>924100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1005800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1941900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1792600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>154700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1083900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-194600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-164700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-181700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-236300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-158200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-92500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-188700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-150000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-165400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-95100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-241300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-140300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-139800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-179400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-173600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-132900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-133400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-191100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-135800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-104400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-84600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-667000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-272500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-572700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-439400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-446400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-246300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-885000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-597300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-165900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-375900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-655200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-451700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-272900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-375000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-270000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-345700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-259000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-652400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-547700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-344200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-689600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-615900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-612500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-557300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-558500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-560400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-557400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-507300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-509600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-510600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-507700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-930300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-931500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-853800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-817200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-782500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-785100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1103400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-999500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-798100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-948200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-351000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-831900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-531600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-703200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-592600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-681300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-79900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-58500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>26700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>23900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>21700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>76800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-52600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-31700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>25000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-70200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-88600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>38200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>47700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>22000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>32600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1237500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-171000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>842800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>572600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>178700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1973100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1005800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-374100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-316300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1357700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>304300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>101100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-697600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1132500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>333800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-445100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>744700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>143300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-838200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-828600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15423700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16158800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15046700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14965200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13419300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13263800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12088100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11762200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10835300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10991300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11141500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11359000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11055700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11099700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10454100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10605500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10504000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10695000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10067800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9884300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9640900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9356800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8762200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9005600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10477600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10844100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10522700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10048400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8953100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8859400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8492900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7863900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7394700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7462600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7782300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7711200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7621000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7571400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7399800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7308100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14685400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14882700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7219400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13822400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6754200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6447200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6258000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6275600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4946100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5314700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4524000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4916800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4466200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4404400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3595200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3898300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3440600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3528700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3359200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3647800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3434700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3528300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3054300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3297400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2848400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2886700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2909600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2504200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2730000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>96300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1236,8 +1256,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1245,26 +1265,29 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-3900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>501600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12300</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13155500</v>
+      </c>
+      <c r="E17" s="3">
         <v>13652000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12985100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12530900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11460600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11145100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10434600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9871500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9290600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9278600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9652600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9591700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9484200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9381700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9067500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8976500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9034300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9060100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8785100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8386100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8340500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8483100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7635900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7673600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2268200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2506800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2061600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2434300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1958700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2118700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1653500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1890700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1544700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1712700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1488900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1767300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1571500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1718000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1386600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1629000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1469700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1634900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1282700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1498200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1300400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>873700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1126300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1332000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>117900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>105000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>252700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2792700</v>
+      </c>
+      <c r="E21" s="3">
         <v>3030900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2589900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2918200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2417100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2601700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2229100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2463900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2284300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2130400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1960200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2205600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1808400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1931000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1601500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1826700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1696900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1856800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1469300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1731500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1529000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1072500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1310300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1521600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E22" s="3">
         <v>12100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11200</v>
       </c>
       <c r="F22" s="3">
         <v>11200</v>
       </c>
       <c r="G22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8900</v>
       </c>
       <c r="J22" s="3">
         <v>8900</v>
       </c>
       <c r="K22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L22" s="3">
         <v>14100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2494600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2050500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2406100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1917800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2094000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1762400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1986900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1783400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1680800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1509600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1560800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1704300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1376300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1610500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1456600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1612600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1244800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1494100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1292000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>874400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1118500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1331100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E24" s="3">
         <v>675300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>392900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>586400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>480400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>524400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>301000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>464800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>477900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>428100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>257500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>425500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>415200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>435700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>235500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>319200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>408200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>513500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>188500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>305600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>308800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>169600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>231300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>271400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1692400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1819300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1657500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1819700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1437400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1569600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1461500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1522100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1305400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1252600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1252100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1375200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1145500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1268600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1140700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1291300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1048400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1099100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1056300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1188500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>983200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>704800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>887200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1059700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1786100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1634900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1791000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1416200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1549400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1440900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1287900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1228200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1234700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1357000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1130400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1124400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1274700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1029500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1083900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1123700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>932500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>669500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>838800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1004500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2292,17 +2353,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-40900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-117900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-105000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-252700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1786100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1634900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1791000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1416200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1549400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1440900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1287900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1228200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1234700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1357000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1130400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1124400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1274700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1029500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1043000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>863700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1123700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>932500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>669500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>838800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1004500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1786100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1634900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1791000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1416200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1549400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1440900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1287900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1228200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1234700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1357000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1130400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1124400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1274700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1029500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1043000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>863700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1123700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>932500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>669500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>838800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1004500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,120 +3007,124 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7889800</v>
+      </c>
+      <c r="E41" s="3">
         <v>6703600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5466100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5637100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8168200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10009400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9166600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8594000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8415300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6442300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5436500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5810500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6126900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4769200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4464900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4363800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5061400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3928800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3595100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3681700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4126900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3382200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3238900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4077100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3300</v>
       </c>
       <c r="O42" s="3">
         <v>3300</v>
@@ -3043,117 +3133,123 @@
         <v>3300</v>
       </c>
       <c r="Q42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="R42" s="3">
         <v>3100</v>
       </c>
       <c r="S42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T42" s="3">
         <v>3200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2600</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>2500</v>
       </c>
       <c r="Z42" s="3">
         <v>2500</v>
       </c>
       <c r="AA42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11776800</v>
+      </c>
+      <c r="E43" s="3">
         <v>12219100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11590900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11120400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9728200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9473400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8725400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8547700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7846900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8345600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8517900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8577400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8095100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8134100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8151400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8023100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7496400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7446700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7511300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7458000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6885300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6741700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6563900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6469000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,393 +3325,411 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1940300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2080800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2122100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1857200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1765800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1657600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1665200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1401200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1393200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1354700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1447200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1214900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1225400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1235000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1213900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1150400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1024600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>958100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1175200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1163500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1082200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1079200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>958700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>819800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21610900</v>
+      </c>
+      <c r="E46" s="3">
         <v>21007700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19185100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18621700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19666500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21144900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19560700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18626100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17749800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16146200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15405300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15606100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15450600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14141700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13833300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13540400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13585600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12336900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12284900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12303800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12097300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11205700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10764000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11368400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E47" s="3">
         <v>367200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>376300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>367900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>368000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>350600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>343400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>367800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>323700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>340800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>336800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>311300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>255000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>249800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>258300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>238600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>251000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>254300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>266500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>252500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>250400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>243300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>290800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4677700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4844100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4905700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4811100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4821600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4667900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4646500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4606900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4728900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4668000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4607100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4540900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1391200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1341500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1282800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1243300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1264000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1228900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1196200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1159000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1140600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1041000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>968400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>928900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15064100</v>
+      </c>
+      <c r="E49" s="3">
         <v>14320700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14271900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14341400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12836800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10361100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9960700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9208400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8739000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8366600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7606800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7129300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7046300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6922700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6514700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6219600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6070100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5963500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6015000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5770700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5712700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5253700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4797100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4560100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5545900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5555400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5578800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5533300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5483000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5583000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5466800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5483500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5493100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5552800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5543500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5557500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5590500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5495500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5509600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5444800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3290800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3470400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3382500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3474100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3486700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3384700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3306000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3295500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47263400</v>
+      </c>
+      <c r="E54" s="3">
         <v>46095200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44317800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43674700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43175800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42124900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39985400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38268300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37078600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35057300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33503400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33170700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29789900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28156400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27390200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26706400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24449100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23250800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23133000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22974200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22689900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21135600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20078800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20443700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,147 +4187,151 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2559500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2384400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2229200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2210200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2274100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1926900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1740400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1513400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1349900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1406000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1526100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1581100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1646600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1472100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1355500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1348800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1389000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1367500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1316900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1525100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1291100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1212800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1163300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9100</v>
       </c>
       <c r="F58" s="3">
         <v>9100</v>
       </c>
       <c r="G58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H58" s="3">
         <v>12100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2900</v>
       </c>
       <c r="X58" s="3">
         <v>2900</v>
@@ -4206,321 +4340,336 @@
         <v>2900</v>
       </c>
       <c r="Z58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AA58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14954800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14169500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13301800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13012800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13422700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12993500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12341200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11296700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11304900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10413600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9644700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9614600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9408800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8984900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8742600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8816100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8797600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8161800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7997500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8543100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8296300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7860200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7137000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8004000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17523500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16562600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15540100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15232000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15708900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14929600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14090700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12819100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12662600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11828300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11177600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11199400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11061900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10552000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10219000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10176300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10151800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9553600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9367900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9863000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9824300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9154300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8352800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9170100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E61" s="3">
         <v>51500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>55900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>53500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>61600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>59300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>59900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>60300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25900</v>
-      </c>
-      <c r="V61" s="3">
-        <v>22200</v>
       </c>
       <c r="W61" s="3">
         <v>22200</v>
       </c>
       <c r="X61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="Y61" s="3">
         <v>24700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6946900</v>
+      </c>
+      <c r="E62" s="3">
         <v>7469300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7568600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7448200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7316400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7239700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6993000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6963100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6862800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6685100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6391900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6354200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3884000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3441600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3422900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3454600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3553100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3518500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3300700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3195500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3133200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3079900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3086300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3214900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25157300</v>
+      </c>
+      <c r="E66" s="3">
         <v>24706100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23757800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23321500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23646400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22782000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21677400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20361800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20078100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19042700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18028800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18003600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15380900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14419000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14053200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14027600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14084300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13453500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13450300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13872000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13740400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12968200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12114500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13026600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18203800</v>
+      </c>
+      <c r="E72" s="3">
         <v>17177400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16028400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15110700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13988700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15004300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14035800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13276700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12375500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12565900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11867500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11236300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10421500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11709300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11422000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10384100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7952400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8296800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8149100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7339200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7081900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8844800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8953200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8113500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22106100</v>
+      </c>
+      <c r="E76" s="3">
         <v>21389100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20560000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20353200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19529500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19342800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18308000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17906500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17000500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16014600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15474600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15167100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14409000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13737300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13337000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12678900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10364800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9797300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9682700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9102100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8949500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8167400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7964200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7417100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1786100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1634900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1791000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1416200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1549400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1440900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1287900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1228200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1234700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1357000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1130400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1124400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1274700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1029500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1043000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>863700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1123700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>932500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>669500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>838800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1004500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>534900</v>
+      </c>
+      <c r="E83" s="3">
         <v>524200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>528300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>486300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>479000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>457800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>468200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>486900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>444700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>442100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>399500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>240200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>221300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>219600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>211700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>235100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>238400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>220700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>232600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>232100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>194500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>187800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>187400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3790100</v>
+      </c>
+      <c r="E89" s="3">
         <v>3064700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2155500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>530900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2436400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2401200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2534700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1602800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3156100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2741500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1530600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>786900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2116300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2123500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1359700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1027500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2109300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1987500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>924100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1005800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1941900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1792600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>154700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1083900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-177100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-194600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-164700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-181700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-236300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-158200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-93100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-188700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-150000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-165400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-95100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-241300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-140300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-139800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-179400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-173600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-132900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-133400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-191100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-135800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-104400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-84600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1408600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-667000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-272500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-572700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-439400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-446400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-246300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-885000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-597300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-165900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-375900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-655200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-451700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-272900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-375000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-270000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-345700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-259000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-652400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-547700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-344200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-689600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,76 +6962,79 @@
         <v>-613100</v>
       </c>
       <c r="E96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-615900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-612500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-557300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-558500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-560400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-557400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-507300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-509600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-510600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-507700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-930300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-931500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-853800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-817200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-782500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-785100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1101400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1103400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-999500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-798100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-948200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-351000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-831900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-531600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-703200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-592600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-681300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-93800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-56800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-79900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-58500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>26700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>23900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>21700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>76800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-52600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-31700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>25000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-70200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-88600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>38200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>47700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>22000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>32600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-60000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1186300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1237500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-171000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>842800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>572600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>178700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1973100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1005800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-374100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-316300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1357700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>304300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>101100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-697600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1132500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>333800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-86600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-445100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>744700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>143300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-838200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-828600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15747800</v>
+      </c>
+      <c r="E8" s="3">
         <v>15423700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16158800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15046700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14965200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13419300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13263800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12088100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11762200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10835300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10991300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11141500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11359000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11055700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11099700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10454100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10605500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10504000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10695000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10067800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9884300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9640900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9356800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8762200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9005600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10561700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10477600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10844100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10522700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10048400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8953100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8859400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8492900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7863900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7394700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7462600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7782300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7711200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7621000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7571400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7399800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7308100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14685400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14882700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7219400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13822400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6754200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6447200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6258000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6275600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5186100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4946100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5314700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4524000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4916800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4466200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4404400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3595200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3898300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3440600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3528700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3359200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3647800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3434700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3528300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3054300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3297400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2848400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2886700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2909600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2504200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2730000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,19 +1222,22 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>96300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1235,8 +1254,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1250,8 +1269,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1259,8 +1278,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1268,26 +1287,29 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>501600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12300</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13154700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13155500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13652000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12985100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12530900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11460600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11145100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10434600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9871500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9290600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9278600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9652600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9591700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9484200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9381700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9067500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8976500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9034300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9060100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8785100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8386100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8340500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8483100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7635900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7673600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2593100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2268200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2506800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2061600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2434300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1958700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2118700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1653500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1890700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1544700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1712700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1488900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1767300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1571500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1718000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1386600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1629000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1469700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1634900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1282700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1498200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1300400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>873700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1126300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1332000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>117900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>105000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>252700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-34100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3115100</v>
+      </c>
+      <c r="E21" s="3">
         <v>2792700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3030900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2589900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2918200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2417100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2601700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2229100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2463900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2284300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2130400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1960200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2205600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1808400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1931000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1601500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1826700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1696900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1856800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1469300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1731500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1529000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1072500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1310300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1521600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11200</v>
       </c>
       <c r="G22" s="3">
         <v>11200</v>
       </c>
       <c r="H22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8900</v>
       </c>
       <c r="K22" s="3">
         <v>8900</v>
       </c>
       <c r="L22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M22" s="3">
         <v>14100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2601600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2245000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2494600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2050500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2406100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1917800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2094000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1762400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1986900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1783400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1680800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1509600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1560800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1704300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1376300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1610500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1456600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1612600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1244800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1494100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1292000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>874400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1118500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1331100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>605300</v>
+      </c>
+      <c r="E24" s="3">
         <v>552600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>675300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>392900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>586400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>480400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>524400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>301000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>464800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>477900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>428100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>257500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>425500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>415200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>435700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>235500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>319200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>408200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>513500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>188500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>305600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>308800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>169600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>231300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>271400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1996300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1692400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1819300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1657500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1819700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1437400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1569600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1461500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1522100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1305400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1252600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1252100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1375200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1145500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1268600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1140700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1291300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1048400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1099100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1056300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1188500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>983200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>704800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>887200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1059700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1665100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1786100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1634900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1791000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1416200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1549400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1440900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1287900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1228200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1234700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1357000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1130400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1249500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1124400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1274700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1029500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1083900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1123700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>932500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>669500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>838800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1004500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,8 +2401,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2356,17 +2416,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-40900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E32" s="3">
         <v>10400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-117900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-105000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-252700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>34100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1665100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1786100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1634900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1791000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1416200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1549400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1440900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1287900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1228200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1234700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1357000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1130400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1249500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1124400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1274700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1029500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1043000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>863700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1123700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>932500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>669500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>838800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1004500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1665100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1786100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1634900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1791000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1416200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1549400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1440900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1287900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1228200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1234700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1357000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1130400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1249500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1124400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1274700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1029500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1043000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>863700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1123700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>932500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>669500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>838800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1004500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,126 +3093,130 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5899700</v>
+      </c>
+      <c r="E41" s="3">
         <v>7889800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6703600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5466100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5637100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8168200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10009400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9166600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8594000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8415300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6442300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5436500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5810500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6126900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4769200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4464900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4363800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5061400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3928800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3595100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3681700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4126900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3382200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3238900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4077100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E42" s="3">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>83100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>94300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>3300</v>
       </c>
       <c r="P42" s="3">
         <v>3300</v>
@@ -3136,120 +3225,126 @@
         <v>3300</v>
       </c>
       <c r="R42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="S42" s="3">
         <v>3100</v>
       </c>
       <c r="T42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U42" s="3">
         <v>3200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2600</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>2500</v>
       </c>
       <c r="AA42" s="3">
         <v>2500</v>
       </c>
       <c r="AB42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12610400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11776800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12219100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11590900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11120400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9728200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9473400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8725400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8547700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7846900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8345600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8517900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8577400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8095100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8134100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8151400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8023100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7496400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7446700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7511300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7458000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6885300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6741700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6563900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6469000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,408 +3423,426 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2158300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1940300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2080800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2122100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1857200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1765800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1657600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1665200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1401200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1393200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1354700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1447200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1214900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1225400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1235000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1213900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1150400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1024600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>958100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1175200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1163500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1082200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1079200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>958700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>819800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20672500</v>
+      </c>
+      <c r="E46" s="3">
         <v>21610900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21007700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19185100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18621700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19666500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21144900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19560700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18626100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17749800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16146200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15405300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15606100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15450600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14141700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13833300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13540400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13585600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12336900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12284900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12303800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12097300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11205700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10764000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11368400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>393100</v>
+      </c>
+      <c r="E47" s="3">
         <v>364800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>376300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>367300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>367900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>368000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>350600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>343400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>367800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>340800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>336800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>311300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>255000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>249800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>258300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>238600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>251000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>254300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>266500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>252500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>250400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>243300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>290800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4631200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4677700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4844100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4905700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4811100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4821600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4667900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4646500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4606900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4728900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4668000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4607100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4540900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1391200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1341500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1282800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1243300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1264000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1228900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1196200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1159000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1140600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1041000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>968400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>928900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15820700</v>
+      </c>
+      <c r="E49" s="3">
         <v>15064100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14320700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14271900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14341400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12836800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10361100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9960700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9208400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8739000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8366600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7606800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7129300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7046300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6922700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6514700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6219600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6070100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5963500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6015000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5770700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5712700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5253700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4797100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4560100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5598300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5545900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5555400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5578800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5533300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5483000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5583000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5466800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5483500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5493100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5552800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5543500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5557500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5590500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5495500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5509600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5444800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3290800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3470400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3382500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3474100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3486700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3384700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3306000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3295500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47115800</v>
+      </c>
+      <c r="E54" s="3">
         <v>47263400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46095200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44317800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43674700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43175800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42124900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39985400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38268300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37078600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35057300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33503400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33170700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29789900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28156400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27390200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26706400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24449100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23250800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23133000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22974200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22689900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21135600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20078800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20443700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,153 +4317,157 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2417800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2559500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2384400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2229200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2210200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2274100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1926900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1740400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1513400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1349900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1406000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1526100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1581100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1646600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1563000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1472100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1355500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1348800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1389000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1367500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1316900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1525100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1291100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1212800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1163300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9100</v>
       </c>
       <c r="G58" s="3">
         <v>9100</v>
       </c>
       <c r="H58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I58" s="3">
         <v>12100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2900</v>
       </c>
       <c r="Y58" s="3">
         <v>2900</v>
@@ -4343,333 +4476,348 @@
         <v>2900</v>
       </c>
       <c r="AA58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AB58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14033000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14954800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14169500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13301800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13012800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13422700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12993500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12341200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11296700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11304900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10413600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9644700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9614600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9408800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8984900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8742600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8816100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8797600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8161800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7997500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8543100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8296300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7860200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7137000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8004000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16460200</v>
+      </c>
+      <c r="E60" s="3">
         <v>17523500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16562600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15540100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15232000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15708900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14929600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14090700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12819100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12662600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11828300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11177600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11199400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11061900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10552000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10219000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10176300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10151800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9553600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9367900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9863000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9824300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9154300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8352800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9170100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E61" s="3">
         <v>45900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>55900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>53500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>61600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>59300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>60300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25900</v>
-      </c>
-      <c r="W61" s="3">
-        <v>22200</v>
       </c>
       <c r="X61" s="3">
         <v>22200</v>
       </c>
       <c r="Y61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="Z61" s="3">
         <v>24700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6944500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6946900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7469300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7568600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7448200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7316400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7239700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6993000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6963100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6862800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6685100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6391900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6354200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3884000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3441600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3422900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3454600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3553100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3518500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3300700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3195500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3133200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3079900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3086300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3214900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24141200</v>
+      </c>
+      <c r="E66" s="3">
         <v>25157300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24706100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23757800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23321500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23646400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22782000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21677400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20361800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20078100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19042700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18028800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18003600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15380900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14419000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14053200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14027600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14084300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13453500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13450300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13872000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13740400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12968200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12114500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13026600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16981400</v>
+      </c>
+      <c r="E72" s="3">
         <v>18203800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17177400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16028400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15110700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13988700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15004300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14035800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13276700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12375500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12565900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11867500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11236300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10421500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11709300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11422000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10384100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7952400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8296800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8149100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7339200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7081900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8844800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8953200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8113500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22974600</v>
+      </c>
+      <c r="E76" s="3">
         <v>22106100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21389100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20560000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20353200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19529500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19342800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18308000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17906500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17000500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16014600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15474600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15167100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14409000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13737300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13337000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12678900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10364800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9797300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9682700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9102100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8949500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8167400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7964200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7417100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1665100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1786100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1634900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1791000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1416200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1549400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1440900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1287900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1228200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1234700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1357000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1130400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1249500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1124400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1274700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1029500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1043000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>863700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1123700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>932500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>669500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>838800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1004500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>506200</v>
+      </c>
+      <c r="E83" s="3">
         <v>534900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>524200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>528300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>486300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>479000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>457800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>468200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>486900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>444700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>442100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>399500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>240200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>221300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>219600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>211700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>235100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>238400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>220700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>232600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>232100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>194500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>187800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>187400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>495400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3790100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3064700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2155500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>530900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2436400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2401200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2534700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1602800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3156100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2741500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1530600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>786900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2116300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2123500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1359700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1027500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2109300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1987500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>924100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1005800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1941900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1792600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>154700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1083900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-177100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-194600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-164700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-181700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-236300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-158200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-92500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-93100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-188700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-150000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-165400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-95100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-241300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-140300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-139800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-179400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-173600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-132900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-133400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-191100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-135800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-104400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-84600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-782100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1408600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-667000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-272500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-572700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-439400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-446400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-246300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-885000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-597300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-165900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-375900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-655200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-451700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-272900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-375000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-270000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-345700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-259000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-652400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-547700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-344200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-689600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-613100</v>
+        <v>-704900</v>
       </c>
       <c r="E96" s="3">
         <v>-613100</v>
       </c>
       <c r="F96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-615900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-612500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-557300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-558500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-560400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-557400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-507300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-509600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-510600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-507700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-930300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-931500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-853800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-817200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-782500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-785100</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1676900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1101400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1103400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-999500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-798100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-948200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-351000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-831900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-531600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-703200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-592600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-681300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-93800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-56800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-79900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-58500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>26700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>23900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>76800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-52600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-42000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>25000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-70200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-88600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>38200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-13000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>47700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>22000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>32600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-60000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1990100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1186300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1237500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-171000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>842800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>572600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>178700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1973100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1005800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-374100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-316300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1357700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>304300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>101100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-697600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1132500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>333800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-86600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-445100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>744700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>143300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-838200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-828600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15814200</v>
+      </c>
+      <c r="E8" s="3">
         <v>15747800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15423700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16158800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15046700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14965200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13419300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13263800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12088100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11762200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10835300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10991300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11141500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11359000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11055700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11099700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10454100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10605500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10504000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10695000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10067800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9884300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9640900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9356800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8762200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9005600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10979400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10561700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10477600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10844100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10522700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10048400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8953100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8859400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8492900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7863900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7394700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7462600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7782300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7711200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7621000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7571400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7399800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7308100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14685400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14882700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7219400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13822400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6754200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6447200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6258000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6275600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4834800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5186100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4946100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5314700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4524000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4916800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4466200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4404400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3595200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3898300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3440600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3528700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3359200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3647800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3434700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3528300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3054300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3297400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2848400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2886700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2909600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2504200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2730000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,22 +1242,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>244400</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>96300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1257,8 +1277,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1272,8 +1292,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1281,8 +1301,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1290,26 +1310,29 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>501600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12300</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13869600</v>
+      </c>
+      <c r="E17" s="3">
         <v>13154700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13155500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13652000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12985100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12530900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11460600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11145100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10434600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9871500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9290600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9278600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9652600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9591700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9484200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9381700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9067500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8976500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9034300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9060100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8785100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8386100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8340500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8483100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7635900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7673600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1944600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2593100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2268200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2506800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2061600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2434300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1958700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2118700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1653500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1890700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1544700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1712700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1488900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1767300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1571500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1718000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1386600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1629000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1469700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1634900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1282700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1498200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1300400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>873700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1126300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1332000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E20" s="3">
         <v>15800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>117900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>105000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>252700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-34100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2491000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3115100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2792700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3030900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2589900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2918200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2417100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2601700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2229100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2463900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2284300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2130400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1960200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2205600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1808400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1931000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1601500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1826700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1696900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1856800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1469300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1731500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1529000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1072500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1310300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1521600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11200</v>
       </c>
       <c r="H22" s="3">
         <v>11200</v>
       </c>
       <c r="I22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8900</v>
       </c>
       <c r="L22" s="3">
         <v>8900</v>
       </c>
       <c r="M22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N22" s="3">
         <v>14100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1946900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2601600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2245000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2494600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2050500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2406100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1917800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2094000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1762400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1986900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1783400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1680800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1509600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1560800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1704300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1376300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1610500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1456600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1612600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1244800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1494100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1292000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>874400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1118500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1331100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E24" s="3">
         <v>605300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>552600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>675300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>392900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>586400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>480400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>524400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>301000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>464800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>477900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>428100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>257500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>425500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>415200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>435700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>235500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>319200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>408200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>513500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>188500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>305600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>308800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>169600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>231300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>271400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1550700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1996300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1692400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1819300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1657500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1819700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1437400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1569600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1461500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1522100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1305400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1252600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1252100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1375200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1145500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1268600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1140700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1291300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1048400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1099100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1056300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1188500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>983200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>704800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>887200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1059700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1523600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1965000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1665100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1786100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1634900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1791000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1416200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1549400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1440900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1287900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1228200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1234700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1130400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1249500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1124400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1274700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1029500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1083900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1123700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>932500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>669500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>838800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1004500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2404,8 +2465,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2419,17 +2480,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-40900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-117900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-105000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-252700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>34100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1523600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1965000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1665100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1786100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1634900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1791000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1416200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1549400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1440900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1287900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1228200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1234700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1130400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1249500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1124400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1274700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1029500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1043000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>863700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1123700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>932500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>669500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>838800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1004500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1523600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1965000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1665100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1786100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1634900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1791000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1416200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1549400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1440900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1287900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1228200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1234700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1130400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1249500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1124400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1274700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1029500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1043000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>863700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1123700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>932500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>669500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>838800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1004500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,132 +3180,136 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6238800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5899700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7889800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6703600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5466100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5637100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8168200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10009400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9166600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8594000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8415300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6442300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5436500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5810500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6126900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4769200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4464900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4363800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5061400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3928800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3595100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3681700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4126900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3382200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3238900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4077100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E42" s="3">
         <v>4100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>94300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>3300</v>
       </c>
       <c r="Q42" s="3">
         <v>3300</v>
@@ -3228,123 +3318,129 @@
         <v>3300</v>
       </c>
       <c r="S42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="T42" s="3">
         <v>3100</v>
       </c>
       <c r="U42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V42" s="3">
         <v>3200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>2500</v>
       </c>
       <c r="AB42" s="3">
         <v>2500</v>
       </c>
       <c r="AC42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AD42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12499200</v>
+      </c>
+      <c r="E43" s="3">
         <v>12610400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11776800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12219100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11590900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11120400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9728200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9473400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8725400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8547700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7846900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8345600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8517900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8577400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8095100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8134100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8151400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8023100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7496400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7446700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7511300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7458000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6885300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6741700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6563900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6469000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3522,441 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2318800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2158300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1940300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2080800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2122100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1857200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1765800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1657600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1665200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1401200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1393200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1354700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1447200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1214900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1225400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1235000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1213900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1150400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1024600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>958100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1175200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1163500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1082200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1079200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>958700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>819800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21061000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20672500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21610900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21007700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19185100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18621700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19666500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21144900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19560700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18626100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17749800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16146200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15405300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15606100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15450600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14141700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13833300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13540400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13585600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12336900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12284900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12303800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12097300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11205700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10764000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11368400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400700</v>
+      </c>
+      <c r="E47" s="3">
         <v>393100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>364800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>376300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>367300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>367900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>368000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>350600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>343400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>367800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>323700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>340800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>336800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>311300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>255000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>249800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>258300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>238600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>251000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>254300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>266500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>252500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>250400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>243300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>290800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4466900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4631200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4677700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4844100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4905700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4811100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4821600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4667900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4646500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4606900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4728900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4668000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4607100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4540900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1391200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1341500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1282800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1243300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1264000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1228900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1196200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1159000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1140600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1041000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>968400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>928900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16196600</v>
+      </c>
+      <c r="E49" s="3">
         <v>15820700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15064100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14320700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14271900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14341400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12836800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10361100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9960700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9208400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8739000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8366600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7606800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7129300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7046300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6922700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6514700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6219600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6070100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5963500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6015000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5770700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5712700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5253700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4797100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4560100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5602200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5598300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5545900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5555400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5578800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5533300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5483000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5583000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5466800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5483500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5493100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5552800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5543500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5557500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5590500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5495500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5509600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5444800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3290800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3470400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3382500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3474100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3486700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3384700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3306000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3295500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47727300</v>
+      </c>
+      <c r="E54" s="3">
         <v>47115800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47263400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46095200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44317800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43674700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43175800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42124900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39985400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38268300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37078600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35057300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33503400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33170700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29789900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28156400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27390200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26706400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24449100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23250800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23133000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22974200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22689900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>21135600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20078800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>20443700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,159 +4448,163 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2470900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2417800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2559500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2384400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2229200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2210200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2274100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1926900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1740400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1513400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1349900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1406000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1526100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1581100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1646600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1563000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1472100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1355500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1348800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1389000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1367500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1316900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1525100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1291100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1212800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1163300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9100</v>
       </c>
       <c r="H58" s="3">
         <v>9100</v>
       </c>
       <c r="I58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2900</v>
       </c>
       <c r="Z58" s="3">
         <v>2900</v>
@@ -4479,345 +4613,360 @@
         <v>2900</v>
       </c>
       <c r="AB58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AC58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13867800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14033000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14954800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14169500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13301800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13012800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13422700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12993500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12341200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11296700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11304900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10413600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9644700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9614600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9408800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8984900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8742600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8816100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8797600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8161800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7997500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8543100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8296300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7860200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7137000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8004000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16349500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16460200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17523500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16562600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15540100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15232000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15708900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14929600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14090700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12819100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12662600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11828300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11177600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11199400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11061900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10552000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10219000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10176300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10151800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9553600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9367900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9863000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9824300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9154300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8352800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9170100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E61" s="3">
         <v>45100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>55900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>53500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>61600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>60300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25900</v>
-      </c>
-      <c r="X61" s="3">
-        <v>22200</v>
       </c>
       <c r="Y61" s="3">
         <v>22200</v>
       </c>
       <c r="Z61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="AA61" s="3">
         <v>24700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6875300</v>
+      </c>
+      <c r="E62" s="3">
         <v>6944500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6946900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7469300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7568600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7448200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7316400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7239700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6993000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6963100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6862800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6685100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6391900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6354200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3884000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3441600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3422900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3454600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3553100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3518500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3300700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3195500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3133200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3079900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3086300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3214900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23964700</v>
+      </c>
+      <c r="E66" s="3">
         <v>24141200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25157300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24706100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23757800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23321500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23646400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22782000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21677400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20361800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20078100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19042700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18028800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18003600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15380900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14419000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14053200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14027600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14084300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13453500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13450300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13872000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13740400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12968200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12114500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13026600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17500000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16981400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18203800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17177400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16028400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15110700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13988700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15004300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14035800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13276700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12375500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12565900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11867500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11236300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10421500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11709300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11422000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10384100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7952400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8296800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8149100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7339200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7081900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8844800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8953200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8113500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23762600</v>
+      </c>
+      <c r="E76" s="3">
         <v>22974600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22106100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21389100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20560000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20353200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19529500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19342800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18308000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17906500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17000500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16014600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15474600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15167100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14409000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13737300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13337000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12678900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10364800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9797300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9682700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9102100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8949500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8167400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7964200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7417100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1523600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1965000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1665100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1786100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1634900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1791000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1416200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1549400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1440900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1287900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1228200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1234700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1130400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1249500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1124400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1274700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1029500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1043000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>863700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1123700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>932500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>669500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>838800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1004500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>532500</v>
+      </c>
+      <c r="E83" s="3">
         <v>506200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>534900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>524200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>528300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>486300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>479000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>457800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>468200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>486900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>444700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>442100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>399500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>240200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>221300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>219600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>211700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>235100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>238400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>220700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>232600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>232100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>194500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>187800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>187400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2330100</v>
+      </c>
+      <c r="E89" s="3">
         <v>495400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3790100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3064700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2155500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>530900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2436400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2401200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2534700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1602800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3156100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2741500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1530600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>786900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2116300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2123500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1359700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1027500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2109300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1987500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>924100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1005800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1941900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1792600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>154700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1083900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-98800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-177100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-194600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-164700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-181700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-236300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-158200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-93100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-188700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-150000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-165400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-95100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-241300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-139800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-179400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-173600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-132900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-133400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-191100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-135800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-104400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-84600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-478300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-782100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1408600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-667000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-272500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-572700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-439400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-446400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-246300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-885000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-597300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-375900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-655200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-451700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-272900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-375000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-270000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-345700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-652400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-547700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-344200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-689600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-707200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-704900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-613100</v>
       </c>
       <c r="F96" s="3">
         <v>-613100</v>
       </c>
       <c r="G96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-615900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-612500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-557300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-558500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-560400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-557400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-507300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-509600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-510600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-507700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-930300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-931500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-853800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-817200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-782500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-785100</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1515300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1676900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1101400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1103400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-999500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-798100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-948200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-351000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-831900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-531600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-703200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-592600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-681300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-26600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-93800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-56800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-79900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-58500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>26700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>76800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-52600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-31700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-42000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>25000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-70200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-88600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>38200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>47700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>22000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>32600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-60000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>339100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1990100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1186300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1237500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-171000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>842800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>572600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>178700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1973100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1005800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-374100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-316300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1357700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>304300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>101100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-697600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1132500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>333800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-86600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-445100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>744700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>143300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-838200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-828600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16564600</v>
+      </c>
+      <c r="E8" s="3">
         <v>15814200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15747800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15423700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16158800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15046700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14965200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13419300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13263800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12088100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11762200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10835300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10991300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11141500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11359000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11055700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11099700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10454100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10605500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10504000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10695000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10067800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9884300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9640900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9356800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8762200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9005600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11035500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10979400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10561700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10477600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10844100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10522700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10048400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8953100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8859400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8492900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7863900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7394700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7462600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7782300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7711200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7621000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7571400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7399800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7308100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14685400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14882700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7219400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13822400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6754200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6447200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6258000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6275600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5529100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4834800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5186100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4946100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5314700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4524000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4916800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4466200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4404400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3595200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3898300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3440600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3528700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3359200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3647800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3434700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3528300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3054300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3297400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2848400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2886700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2909600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2504200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2730000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,25 +1262,28 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E14" s="3">
         <v>244400</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>96300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1304,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1313,26 +1333,29 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>501600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12300</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14205300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13869600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13154700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13155500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13652000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12985100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12530900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11460600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11145100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10434600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9871500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9290600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9278600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9652600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9591700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9484200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9381700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9067500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8976500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9034300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9060100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8785100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8386100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8340500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8483100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7635900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7673600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2359300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1944600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2593100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2268200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2506800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2061600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2434300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1958700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2118700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1653500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1890700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1544700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1712700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1488900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1767300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1571500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1718000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1386600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1629000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1469700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1634900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1282700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1498200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1300400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>873700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1126300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1332000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E20" s="3">
         <v>13900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>117900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>105000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>252700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-16500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2491000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3115100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2792700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3030900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2589900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2918200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2417100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2601700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2229100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2463900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2284300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2130400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1960200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2205600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1808400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1931000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1601500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1826700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1696900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1856800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1469300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1731500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1529000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1072500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1310300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1521600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E22" s="3">
         <v>11600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11200</v>
       </c>
       <c r="I22" s="3">
         <v>11200</v>
       </c>
       <c r="J22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8900</v>
       </c>
       <c r="M22" s="3">
         <v>8900</v>
       </c>
       <c r="N22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O22" s="3">
         <v>14100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2631700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1946900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2601600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2245000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2494600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2050500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2406100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1917800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2094000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1762400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1986900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1783400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1680800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1560800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1704300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1376300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1610500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1456600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1612600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1244800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1494100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1292000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>874400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1118500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1331100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>583300</v>
+      </c>
+      <c r="E24" s="3">
         <v>396200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>605300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>552600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>675300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>392900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>586400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>480400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>524400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>301000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>464800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>477900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>428100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>257500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>425500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>415200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>435700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>235500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>319200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>408200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>513500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>188500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>305600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>308800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>169600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>231300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>271400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2048300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1550700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1996300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1692400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1819300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1657500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1819700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1437400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1569600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1461500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1522100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1305400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1252600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1252100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1375200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1145500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1268600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1140700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1291300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1048400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1099100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1056300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1188500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>983200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>704800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>887200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1059700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1523600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1965000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1665100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1786100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1634900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1791000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1416200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1549400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1440900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1287900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1228200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1234700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1357000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1130400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1249500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1124400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1274700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1029500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1083900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1123700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>932500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>669500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>838800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1004500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,8 +2529,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2483,17 +2544,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-40900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-283600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-117900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-105000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-252700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>16500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>34100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1523600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1965000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1665100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1786100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1634900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1791000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1416200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1549400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1440900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1287900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1228200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1234700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1357000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1130400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1249500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1124400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1274700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1029500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1043000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>863700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1123700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>932500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>669500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>838800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1004500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1523600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1965000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1665100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1786100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1634900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1791000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1416200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1549400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1440900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1287900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1228200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1234700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1357000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1130400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1249500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1124400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1274700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1029500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1043000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>863700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1123700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>932500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>669500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>838800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1004500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,138 +3267,142 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8535400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6238800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5899700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7889800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6703600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5466100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5637100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8168200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10009400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9166600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8594000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8415300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6442300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5436500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5810500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6126900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4769200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4464900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4363800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5061400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3928800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3595100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3681700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4126900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3382200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3238900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4077100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>4200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>94300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>3300</v>
       </c>
       <c r="R42" s="3">
         <v>3300</v>
@@ -3321,126 +3411,132 @@
         <v>3300</v>
       </c>
       <c r="T42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="U42" s="3">
         <v>3100</v>
       </c>
       <c r="V42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W42" s="3">
         <v>3200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2600</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>2500</v>
       </c>
       <c r="AC42" s="3">
         <v>2500</v>
       </c>
       <c r="AD42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AE42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12582700</v>
+      </c>
+      <c r="E43" s="3">
         <v>12499200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12610400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11776800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12219100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11590900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11120400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9728200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9473400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8725400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8547700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7846900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8345600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8517900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8577400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8095100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8134100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8151400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8023100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7496400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7446700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7511300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7458000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6885300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6741700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6563900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6469000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,438 +3621,456 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2257500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2318800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2158300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1940300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2080800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2122100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1857200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1765800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1657600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1665200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1401200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1393200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1354700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1447200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1214900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1225400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1235000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1213900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1150400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1024600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>958100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1175200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1163500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1082200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1079200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>958700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>819800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23380100</v>
+      </c>
+      <c r="E46" s="3">
         <v>21061000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20672500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21610900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21007700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19185100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18621700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19666500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21144900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19560700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18626100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17749800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16146200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15405300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15606100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15450600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14141700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13833300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13540400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13585600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12336900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12284900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12303800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12097300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11205700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10764000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>11368400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>242700</v>
+      </c>
+      <c r="E47" s="3">
         <v>400700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>393100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>364800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>367200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>376300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>367300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>367900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>368000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>350600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>343400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>367800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>340800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>336800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>311300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>255000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>249800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>258300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>238600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>251000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>254300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>266500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>252500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>250400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>243300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>290800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4278300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4466900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4631200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4677700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4844100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4905700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4811100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4821600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4667900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4646500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4606900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4728900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4668000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4607100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4540900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1391200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1341500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1282800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1243300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1264000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1228900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1196200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1159000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1140600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1041000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>968400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>928900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16400200</v>
+      </c>
+      <c r="E49" s="3">
         <v>16196600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15820700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15064100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14320700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14271900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14341400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12836800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10361100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9960700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9208400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8739000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8366600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7606800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7129300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7046300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6922700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6514700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6219600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6070100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5963500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6015000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5770700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5712700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5253700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4797100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4560100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5827000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5602200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5598300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5545900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5555400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5578800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5533300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5483000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5583000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5466800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5483500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5493100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5552800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5543500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5557500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5590500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5495500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5509600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5444800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3290800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3470400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3382500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3474100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3486700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3384700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3306000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3295500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50128300</v>
+      </c>
+      <c r="E54" s="3">
         <v>47727300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47115800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47263400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46095200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44317800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43674700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43175800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42124900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39985400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38268300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37078600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35057300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33503400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33170700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29789900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28156400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27390200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26706400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24449100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23250800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23133000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22974200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>22689900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>21135600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>20078800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20443700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,165 +4579,169 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2388500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2470900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2417800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2559500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2384400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2229200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2210200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2274100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1926900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1740400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1513400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1349900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1406000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1526100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1581100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1646600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1563000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1472100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1355500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1348800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1389000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1367500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1316900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1525100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1291100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1212800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1163300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E58" s="3">
         <v>10800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9100</v>
       </c>
       <c r="I58" s="3">
         <v>9100</v>
       </c>
       <c r="J58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K58" s="3">
         <v>12100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>2900</v>
       </c>
       <c r="AA58" s="3">
         <v>2900</v>
@@ -4616,357 +4750,372 @@
         <v>2900</v>
       </c>
       <c r="AC58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AD58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14693700</v>
+      </c>
+      <c r="E59" s="3">
         <v>13867800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14033000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14954800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14169500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13301800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13012800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13422700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12993500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12341200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11296700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11304900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10413600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9644700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9614600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9408800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8984900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8742600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8816100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8797600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8161800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7997500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8543100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8296300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7860200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7137000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8004000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17092500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16349500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16460200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17523500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16562600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15540100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15232000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15708900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14929600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14090700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12819100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12662600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11828300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11177600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11199400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11061900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10552000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10219000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10176300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10151800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9553600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9367900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9863000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9824300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9154300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8352800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9170100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E61" s="3">
         <v>45200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>55900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>53500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>61600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>60300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25900</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>22200</v>
       </c>
       <c r="Z61" s="3">
         <v>22200</v>
       </c>
       <c r="AA61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="AB61" s="3">
         <v>24700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>24600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6930000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6875300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6944500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6946900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7469300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7568600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7448200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7316400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7239700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6993000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6963100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6862800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6685100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6391900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6354200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3884000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3441600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3422900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3454600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3553100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3518500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3300700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3195500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3133200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3079900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3086300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3214900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24795800</v>
+      </c>
+      <c r="E66" s="3">
         <v>23964700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24141200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25157300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24706100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23757800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23321500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23646400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22782000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21677400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20361800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20078100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19042700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18028800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18003600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15380900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14419000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14053200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14027600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14084300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13453500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13450300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13872000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13740400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12968200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12114500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13026600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18692100</v>
+      </c>
+      <c r="E72" s="3">
         <v>17500000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16981400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18203800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17177400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16028400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15110700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13988700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15004300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14035800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13276700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12375500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12565900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11867500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11236300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10421500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11709300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11422000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10384100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7952400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8296800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8149100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7339200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7081900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8844800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8953200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8113500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25332400</v>
+      </c>
+      <c r="E76" s="3">
         <v>23762600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22974600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22106100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21389100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20560000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20353200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19529500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19342800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18308000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17906500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17000500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16014600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15474600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15167100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14409000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13737300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13337000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12678900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10364800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9797300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9682700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9102100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8949500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8167400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7964200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7417100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1523600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1965000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1665100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1786100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1634900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1791000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1416200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1549400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1440900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1287900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1228200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1234700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1357000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1130400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1249500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1124400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1274700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1029500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1043000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>863700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1123700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>932500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>669500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>838800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1004500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>601100</v>
+      </c>
+      <c r="E83" s="3">
         <v>532500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>506200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>534900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>524200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>528300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>486300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>479000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>457800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>468200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>486900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>444700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>442100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>399500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>240200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>221300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>219600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>211700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>235100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>238400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>220700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>232600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>232100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>194500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>187800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>187400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3289400</v>
+      </c>
+      <c r="E89" s="3">
         <v>2330100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>495400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3790100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3064700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2155500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>530900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2436400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2401200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2534700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1602800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3156100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2741500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1530600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>786900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2116300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2123500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1359700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1027500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2109300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1987500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>924100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1005800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1941900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1792600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>154700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1083900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-141500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-107500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-177100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-194600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-164700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-181700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-236300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-158200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-93100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-188700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-150000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-165400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-95100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-241300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-140300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-139800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-179400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-173600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-132900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-133400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-191100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-135800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-104400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-84600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-478300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-782100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1408600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-667000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-272500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-572700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-439400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-446400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-246300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-885000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-597300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-165900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-375900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-655200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-451700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-272900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-375000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-270000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-345700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-652400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-547700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-344200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-689600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-707000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-707200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-704900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-613100</v>
       </c>
       <c r="G96" s="3">
         <v>-613100</v>
       </c>
       <c r="H96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-615900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-612500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-557300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-558500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-560400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-557400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-507300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-509600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-510600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-507700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-930300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-931500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-853800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-817200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-782500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-785100</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-972800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1515300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1676900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1101400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1103400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-999500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-798100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-948200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-351000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-831900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-531600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-703200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-592600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-681300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-26600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-93800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-56800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-79900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-58500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>21700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>76800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-52600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-31700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-42000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>25000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-70200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-88600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>38200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>47700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>22000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>32600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-60000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2296700</v>
+      </c>
+      <c r="E102" s="3">
         <v>339100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1990100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1186300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1237500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-171000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>842800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>572600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>178700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1973100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1005800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-374100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-316300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1357700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>304300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>101100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-697600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1132500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>333800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-86600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-445100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>744700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>143300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-838200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-828600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1407700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15985200</v>
+      </c>
+      <c r="E8" s="3">
         <v>16564600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15814200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15747800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15423700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16158800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15046700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14965200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13419300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13263800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12088100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11762200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10835300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10991300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11141500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11359000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11055700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11099700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10454100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10605500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10504000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10695000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10067800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9884300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9640900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9356800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8762200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9005600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>8965600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10803600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11035500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10979400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10561700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10477600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10844100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10522700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10048400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8953100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8859400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8492900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7863900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7394700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7462600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7782300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7711200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7621000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7571400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7399800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7308100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14685400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14882700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7219400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13822400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6754200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6447200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6258000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6275600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>6310000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5181600</v>
+      </c>
+      <c r="E10" s="3">
         <v>5529100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4834800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5186100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4946100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5314700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4524000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4916800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4466200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4404400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3595200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3898300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3440600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3528700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3359200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3647800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3434700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3528300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3054300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3297400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-4181400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-4187700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2848400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-3938100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2886700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2909600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2504200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2730000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2655600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,28 +1282,31 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E14" s="3">
         <v>346900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>244400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>96300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1327,8 +1347,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1336,26 +1356,29 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>501600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12300</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-295200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14072300</v>
+      </c>
+      <c r="E17" s="3">
         <v>14205300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13869600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13154700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13155500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13652000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12985100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12530900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11460600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11145100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10434600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9871500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9290600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9278600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9652600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9591700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9484200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9381700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9067500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8976500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9034300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9060100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8785100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8386100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8340500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8483100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7635900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7673600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>7475100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1912900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2359300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1944600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2593100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2268200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2506800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2061600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2434300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1958700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2118700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1653500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1890700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1544700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1712700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1488900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1767300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1571500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1718000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1386600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1629000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1469700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1634900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1282700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1498200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1300400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>873700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1126300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1332000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1490500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E20" s="3">
         <v>283600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>117900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>252700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2617800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3244000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2491000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3115100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2792700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3030900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2589900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2918200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2417100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2601700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2229100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2463900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2284300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2130400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1960200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2205600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1808400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1931000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1601500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1826700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1696900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1856800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1469300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1731500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1529000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1072500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1310300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1521600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1656300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E22" s="3">
         <v>11200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11200</v>
       </c>
       <c r="J22" s="3">
         <v>11200</v>
       </c>
       <c r="K22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8900</v>
       </c>
       <c r="N22" s="3">
         <v>8900</v>
       </c>
       <c r="O22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P22" s="3">
         <v>14100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1959100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2631700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1946900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2601600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2245000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2494600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2050500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2406100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1917800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2094000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1762400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1986900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1783400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1680800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1509600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1560800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1704300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1376300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1610500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1456600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1612600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1244800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1494100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1292000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>874400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1118500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1331100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1458900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>550900</v>
+      </c>
+      <c r="E24" s="3">
         <v>583300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>396200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>605300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>552600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>675300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>392900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>586400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>480400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>524400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>301000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>464800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>477900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>428100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>257500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>425500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>415200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>435700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>235500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>319200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>408200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>513500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>188500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>305600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>308800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>169600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>231300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>271400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1408200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2048300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1550700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1996300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1692400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1819300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1657500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1819700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1437400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1569600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1461500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1522100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1305400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1252600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1252100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1375200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1145500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1268600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1140700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1291300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1048400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1099100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1056300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1188500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>983200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>704800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>887200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1059700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1130800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2010000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1523600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1965000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1665100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1786100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1634900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1791000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1416200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1549400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1440900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1287900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1228200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1234700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1357000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1130400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1249500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1124400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1274700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1029500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1083900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1123700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>932500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>669500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>838800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1004500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2532,8 +2593,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2547,17 +2608,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-40900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-136700</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-283600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-117900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-252700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>16500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>34100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2010000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1523600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1965000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1665100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1786100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1634900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1791000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1416200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1549400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1440900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1287900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1228200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1234700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1357000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1130400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1249500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1124400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1274700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1029500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1043000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>863700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1123700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>932500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>669500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>838800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1004500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2010000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1523600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1965000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1665100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1786100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1634900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1791000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1416200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1549400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1440900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1287900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1228200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1234700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1357000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1130400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1249500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1124400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1274700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1029500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1043000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>863700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1123700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>932500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>669500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>838800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1004500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,144 +3354,148 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9045000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8535400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6238800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5899700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7889800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6703600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5466100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5637100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8168200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10009400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9166600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8594000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8415300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6442300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5436500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5810500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6126900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4769200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4464900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4363800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5061400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3928800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3595100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3681700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4126900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3382200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3238900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4077100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4905600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>94300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>3300</v>
       </c>
       <c r="S42" s="3">
         <v>3300</v>
@@ -3414,129 +3504,135 @@
         <v>3300</v>
       </c>
       <c r="U42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="V42" s="3">
         <v>3100</v>
       </c>
       <c r="W42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X42" s="3">
         <v>3200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2600</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>2500</v>
       </c>
       <c r="AD42" s="3">
         <v>2500</v>
       </c>
       <c r="AE42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AF42" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12227200</v>
+      </c>
+      <c r="E43" s="3">
         <v>12582700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12499200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12610400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11776800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12219100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11590900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11120400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9728200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9473400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8725400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8547700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7846900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8345600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8517900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8577400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8095100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8134100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8151400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8023100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7496400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7446700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7511300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7458000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6885300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6741700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6563900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>6469000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>6222400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,453 +3720,471 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2105100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2257500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2318800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2158300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1940300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2080800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2122100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1857200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1765800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1657600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1665200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1401200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1393200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1354700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1447200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1214900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1225400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1235000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1213900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1150400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1024600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>958100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1175200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1163500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1082200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1079200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>958700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>819800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23381900</v>
+      </c>
+      <c r="E46" s="3">
         <v>23380100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21061000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20672500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21610900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21007700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19185100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18621700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19666500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21144900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19560700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18626100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17749800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16146200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15405300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15606100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15450600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14141700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13833300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13540400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13585600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12336900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12284900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12303800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12097300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11205700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>10764000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>11368400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>11976200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E47" s="3">
         <v>242700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>393100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>364800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>367200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>376300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>367300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>367900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>368000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>350600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>343400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>367800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>323700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>340800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>336800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>311300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>255000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>249800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>258300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>238600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>251000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>254300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>266500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>252500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>250400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>243300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>290800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4167500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4278300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4466900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4631200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4677700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4844100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4905700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4811100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4821600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4667900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4646500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4606900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4728900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4668000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4607100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4540900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1391200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1341500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1282800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1243300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1264000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1228900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1196200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1159000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1140600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1041000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>968400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>928900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>956500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17646000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16400200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16196600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15820700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15064100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14320700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14271900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14341400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12836800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10361100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9960700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9208400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8739000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8366600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7606800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7129300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7046300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6922700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6514700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6219600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6070100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5963500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6015000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5770700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5712700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5253700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4797100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4560100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4119600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5745500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5827000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5602200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5598300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5545900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5555400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5578800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5533300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5483000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5583000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5466800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5483500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5493100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5552800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5543500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5557500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5590500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5495500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5509600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5444800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3290800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3470400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3382500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3474100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3486700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3384700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3306000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3295500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>3289900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51245300</v>
+      </c>
+      <c r="E54" s="3">
         <v>50128300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47727300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47115800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47263400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46095200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44317800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43674700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43175800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42124900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39985400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38268300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37078600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35057300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33503400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33170700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29789900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28156400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27390200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26706400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24449100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23250800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23133000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>22974200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>22689900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>21135600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20078800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>20443700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>20609000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,171 +4710,175 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2491200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2388500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2470900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2417800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2559500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2384400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2229200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2210200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2274100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1926900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1740400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1513400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1349900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1526100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1581100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1646600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1563000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1472100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1355500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1348800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1389000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1367500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1316900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1525100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1291100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1212800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1163300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1280800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E58" s="3">
         <v>10400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9100</v>
       </c>
       <c r="J58" s="3">
         <v>9100</v>
       </c>
       <c r="K58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L58" s="3">
         <v>12100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>2900</v>
       </c>
       <c r="AB58" s="3">
         <v>2900</v>
@@ -4753,369 +4887,384 @@
         <v>2900</v>
       </c>
       <c r="AD58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AE58" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15413100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14693700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13867800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14033000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14954800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14169500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13301800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13012800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13422700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12993500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12341200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11296700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11304900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10413600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9644700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9614600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9408800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8984900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8742600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8816100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8797600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8161800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7997500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8543100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8296300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7860200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7137000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>8004000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>7595300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18009000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17092500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16349500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16460200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17523500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16562600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15540100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15232000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15708900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14929600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14090700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12819100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12662600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11828300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11177600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11199400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11061900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10552000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10219000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10176300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10151800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9553600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9367900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9863000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9824300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9154300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8352800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9170100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>8878900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E61" s="3">
         <v>43900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>52200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>55900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>61600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>59900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>60300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25900</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>22200</v>
       </c>
       <c r="AA61" s="3">
         <v>22200</v>
       </c>
       <c r="AB61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="AC61" s="3">
         <v>24700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>24500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>24600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6734600</v>
+      </c>
+      <c r="E62" s="3">
         <v>6930000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6875300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6944500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6946900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7469300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7568600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7448200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7316400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7239700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6993000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6963100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6862800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6685100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6391900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6354200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3884000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3441600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3422900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3454600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3553100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3518500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3300700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3195500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3133200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3079900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3086300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3214900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>3516200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25552500</v>
+      </c>
+      <c r="E66" s="3">
         <v>24795800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23964700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24141200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25157300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24706100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23757800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23321500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23646400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22782000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21677400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20361800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20078100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19042700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18028800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18003600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15380900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14419000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14053200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14027600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14084300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13453500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13450300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13872000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13740400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12968200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12114500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>13026600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>13053700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19316200</v>
+      </c>
+      <c r="E72" s="3">
         <v>18692100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17500000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16981400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18203800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17177400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16028400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15110700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13988700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15004300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14035800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13276700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12375500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12565900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11867500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11236300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10421500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11709300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11422000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10384100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7952400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8296800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8149100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7339200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7081900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8844800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8953200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8113500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>7880000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25692800</v>
+      </c>
+      <c r="E76" s="3">
         <v>25332400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23762600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22974600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22106100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21389100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20560000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20353200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19529500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19342800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18308000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17906500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17000500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16014600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15474600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15167100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14409000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13737300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13337000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12678900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10364800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9797300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9682700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9102100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8949500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8167400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7964200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7417100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>7555300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2010000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1523600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1965000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1665100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1786100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1634900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1791000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1416200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1549400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1440900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1287900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1228200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1234700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1357000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1130400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1249500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1124400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1274700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1029500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1043000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>863700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1123700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>932500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>669500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>838800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1004500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1069200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>641300</v>
+      </c>
+      <c r="E83" s="3">
         <v>601100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>532500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>506200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>534900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>524200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>528300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>486300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>479000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>457800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>468200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>486900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>444700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>442100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>399500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>240200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>221300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>219600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>211700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>235100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>238400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>220700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>232600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>232100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>194500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>187800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>187400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3409400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3289400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2330100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>495400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3790100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3064700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2155500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>530900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2436400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2401200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2534700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1602800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3156100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2741500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1530600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>786900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2116300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2123500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1359700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1027500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2109300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1987500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>924100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1005800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1941900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1792600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>154700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1083900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2066000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-180300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-141500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-107500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-177100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-194600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-164700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-181700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-236300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-158200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-188700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-165400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-95100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-241300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-140300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-139800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-179400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-173600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-132900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-133400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-191100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-135800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-104400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-84600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-320100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1367100</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-478300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-782100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1408600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-667000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-272500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1912600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2851300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-572700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-439400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-446400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-246300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-885000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-597300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-165900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-375900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-655200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-451700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-272900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-375000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-270000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-345700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-259000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-652400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-547700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-344200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-689600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-62500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-705300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-707000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-707200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-704900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-613100</v>
       </c>
       <c r="H96" s="3">
         <v>-613100</v>
       </c>
       <c r="I96" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-615900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-612500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-557300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-558500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-560400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-557400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-507300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-509600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-510600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-507700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-930300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-931500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-853800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-817200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-782500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-785100</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1480300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-972800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1515300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1676900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1101400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1103400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2036700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1069500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1367800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1012400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1546700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-999500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1013500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-798100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1289300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-948200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-351000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1122100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-831900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1462200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-531600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1295200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-703200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-592600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1123600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-681300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1162800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-588100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-26600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-93800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-56800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-79900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-58500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>76800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-31700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-42000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>25000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-70200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-88600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>38200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>47700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>22000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>32600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-60000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2296700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>339100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1990100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1186300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1237500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-171000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2531100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1841200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>842800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>572600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>178700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1973100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1005800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-374100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-316300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1357700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>304300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>101100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-697600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1132500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>333800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-86600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-445100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>744700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>143300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-838200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-828600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1407700</v>
       </c>
     </row>
